--- a/processed_output.xlsx
+++ b/processed_output.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="22.01" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="24.01" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Relatório" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,12 +545,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">C 5653 </t>
+          <t xml:space="preserve">C 6294 </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GUSTAVO PRADI ADAM</t>
+          <t>FERNANDA DE CARVALHO E SILVA TREVISAN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -573,20 +573,20 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2967083</t>
+          <t>3112862</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>714</v>
+        <v>764</v>
       </c>
       <c r="I2" t="n">
-        <v>745.8</v>
+        <v>782.78</v>
       </c>
       <c r="J2" t="n">
-        <v>745.8</v>
+        <v>782.78</v>
       </c>
       <c r="K2" t="n">
-        <v>31.79999999999995</v>
+        <v>18.77999999999997</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -595,12 +595,12 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>01/22/2025 21:13:46</t>
+          <t>01/24/2025 14:57:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>11/10/2024 00:00:00</t>
+          <t>01/10/2025 00:00:00</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -612,12 +612,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">C 6509 </t>
+          <t xml:space="preserve">C 2023 </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>RENATA CAROLINA DE CAMPOS</t>
+          <t>ROMULO BUNESE ROCHA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -640,20 +640,20 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2969388</t>
+          <t>2955394</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>714</v>
       </c>
       <c r="I3" t="n">
-        <v>745.8</v>
+        <v>739.5599999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>745.8</v>
+        <v>739.5599999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>31.79999999999995</v>
+        <v>25.55999999999995</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -662,12 +662,12 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>01/22/2025 14:05:00</t>
+          <t>01/26/2025 18:06:10</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>11/10/2024 00:00:00</t>
+          <t>12/10/2024 00:00:00</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -679,21 +679,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 3465 </t>
+          <t xml:space="preserve">C 2023 </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EMILIO HOFFMANN GOMES JUNIOR</t>
+          <t>ROMULO BUNESE ROCHA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>R-Barao Pagante</t>
+          <t>C-Presente</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>15533</v>
+        <v>15549</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -707,20 +707,20 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3132061</t>
+          <t>3100147</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>382</v>
+        <v>764</v>
       </c>
       <c r="I4" t="n">
-        <v>391.2</v>
+        <v>783.28</v>
       </c>
       <c r="J4" t="n">
-        <v>391.2</v>
+        <v>783.28</v>
       </c>
       <c r="K4" t="n">
-        <v>9.199999999999989</v>
+        <v>19.27999999999997</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -729,7 +729,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>01/22/2025 10:35:11</t>
+          <t>01/26/2025 18:05:13</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -746,12 +746,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">C 5653 </t>
+          <t xml:space="preserve">C 2115 </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GUSTAVO PRADI ADAM</t>
+          <t>CARLOS AUGUSTO BEDUSCHI</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -774,20 +774,20 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2967084</t>
+          <t>3100521</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>714</v>
+        <v>764</v>
       </c>
       <c r="I5" t="n">
-        <v>738.6</v>
+        <v>782.78</v>
       </c>
       <c r="J5" t="n">
-        <v>738.6</v>
+        <v>782.78</v>
       </c>
       <c r="K5" t="n">
-        <v>24.60000000000002</v>
+        <v>18.77999999999997</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -796,12 +796,12 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>01/22/2025 21:13:46</t>
+          <t>01/24/2025 11:19:57</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>12/10/2024 00:00:00</t>
+          <t>01/10/2025 00:00:00</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -813,12 +813,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">C 5653 </t>
+          <t xml:space="preserve">C 2284 </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GUSTAVO PRADI ADAM</t>
+          <t>ADRIANO AGUIAR SOCHER</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -841,20 +841,20 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3111388</t>
+          <t>2956414</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>764</v>
+        <v>714</v>
       </c>
       <c r="I6" t="n">
-        <v>782.28</v>
+        <v>746.04</v>
       </c>
       <c r="J6" t="n">
-        <v>782.28</v>
+        <v>746.04</v>
       </c>
       <c r="K6" t="n">
-        <v>18.27999999999997</v>
+        <v>32.03999999999996</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -863,12 +863,12 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>01/22/2025 21:13:46</t>
+          <t>01/24/2025 06:10:20</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>01/10/2025 00:00:00</t>
+          <t>11/11/2024 00:00:00</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -880,21 +880,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 3755 </t>
+          <t xml:space="preserve">C 1500 </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LINCOLN BUQUERA DE FREITAS OLIVEIRA</t>
+          <t>LEONARDO VECCHI CONTADOR</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>R-Barao Pagante</t>
+          <t>C-Presente</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>15533</v>
+        <v>15549</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -908,20 +908,20 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3133232</t>
+          <t>3098040</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>382</v>
+        <v>764</v>
       </c>
       <c r="I7" t="n">
-        <v>391.2</v>
+        <v>782.78</v>
       </c>
       <c r="J7" t="n">
-        <v>391.2</v>
+        <v>782.78</v>
       </c>
       <c r="K7" t="n">
-        <v>9.199999999999989</v>
+        <v>18.77999999999997</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>01/22/2025 12:29:19</t>
+          <t>01/24/2025 17:18:58</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -947,21 +947,21 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 3755 </t>
+          <t xml:space="preserve">C 961 </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LINCOLN BUQUERA DE FREITAS OLIVEIRA</t>
+          <t>FLAVIA GOMES STECHMAN</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>R-Barao Pagante</t>
+          <t>C-Presente</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>15533</v>
+        <v>15549</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -975,20 +975,20 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3030201</t>
+          <t>3096006</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>357</v>
+        <v>764</v>
       </c>
       <c r="I8" t="n">
-        <v>369.3</v>
+        <v>764</v>
       </c>
       <c r="J8" t="n">
-        <v>369.3</v>
+        <v>764</v>
       </c>
       <c r="K8" t="n">
-        <v>12.30000000000001</v>
+        <v>0</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -997,12 +997,12 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>01/22/2025 12:26:24</t>
+          <t>01/24/2025 08:40:36</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>12/10/2024 00:00:00</t>
+          <t>02/10/2025 00:00:00</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1014,12 +1014,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">C 4487 </t>
+          <t xml:space="preserve">C 1053 </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>JOAO FRANCISCO M SOARES</t>
+          <t>LUISA CORREA LOBO</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1042,20 +1042,20 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3108347</t>
+          <t>3096362</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>764</v>
       </c>
       <c r="I9" t="n">
-        <v>782.28</v>
+        <v>783.28</v>
       </c>
       <c r="J9" t="n">
-        <v>782.28</v>
+        <v>783.28</v>
       </c>
       <c r="K9" t="n">
-        <v>18.27999999999997</v>
+        <v>19.27999999999997</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>01/22/2025 12:54:46</t>
+          <t>01/26/2025 20:52:52</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1081,21 +1081,21 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 3755 </t>
+          <t xml:space="preserve">C 2766 </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LINCOLN BUQUERA DE FREITAS OLIVEIRA</t>
+          <t>MATHEUS ARZUA CASAGRANDE</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>R-Barao Pagante</t>
+          <t>C-Presente</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>15533</v>
+        <v>15549</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1109,20 +1109,20 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3030200</t>
+          <t>3102726</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>357</v>
+        <v>764</v>
       </c>
       <c r="I10" t="n">
-        <v>372.78</v>
+        <v>764</v>
       </c>
       <c r="J10" t="n">
-        <v>372.78</v>
+        <v>764</v>
       </c>
       <c r="K10" t="n">
-        <v>15.77999999999997</v>
+        <v>0</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -1131,12 +1131,12 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>01/22/2025 12:24:17</t>
+          <t>01/24/2025 08:14:52</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>11/11/2024 00:00:00</t>
+          <t>02/10/2025 00:00:00</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1148,21 +1148,21 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">C 2009 </t>
+          <t xml:space="preserve">B 617 </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CAMILA MARINONI LOPES BERNARDES</t>
+          <t>JULIANA MARCELA NOVAKOWSKI</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C-Presente</t>
+          <t>B-Presente</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>15549</v>
+        <v>15533</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1176,20 +1176,20 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2955331</t>
+          <t>3066811</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>714</v>
+        <v>764</v>
       </c>
       <c r="I11" t="n">
-        <v>745.8</v>
+        <v>783.03</v>
       </c>
       <c r="J11" t="n">
-        <v>745.8</v>
+        <v>783.03</v>
       </c>
       <c r="K11" t="n">
-        <v>31.79999999999995</v>
+        <v>19.02999999999997</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1198,12 +1198,12 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>01/22/2025 11:50:51</t>
+          <t>01/25/2025 20:46:21</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>11/10/2024 00:00:00</t>
+          <t>01/10/2025 00:00:00</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1215,12 +1215,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">C 6022 </t>
+          <t xml:space="preserve">C 2913 </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PAULO AUGUSTO ALVES MEYER FILHO</t>
+          <t>FERNANDO BUFREM</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1243,20 +1243,20 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2968183</t>
+          <t>2958582</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>714</v>
       </c>
       <c r="I12" t="n">
-        <v>745.8</v>
+        <v>746.28</v>
       </c>
       <c r="J12" t="n">
-        <v>745.8</v>
+        <v>746.28</v>
       </c>
       <c r="K12" t="n">
-        <v>31.79999999999995</v>
+        <v>32.27999999999997</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>01/22/2025 12:36:52</t>
+          <t>01/24/2025 13:32:19</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1282,12 +1282,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">C 2009 </t>
+          <t xml:space="preserve">C 3240 </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CAMILA MARINONI LOPES BERNARDES</t>
+          <t>SIBELLE PEREIRA DE SOUZA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1310,20 +1310,20 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2955332</t>
+          <t>2959683</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>714</v>
       </c>
       <c r="I13" t="n">
-        <v>738.6</v>
+        <v>746.52</v>
       </c>
       <c r="J13" t="n">
-        <v>738.6</v>
+        <v>746.52</v>
       </c>
       <c r="K13" t="n">
-        <v>24.60000000000002</v>
+        <v>32.51999999999998</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1332,12 +1332,12 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>01/22/2025 11:55:21</t>
+          <t>01/25/2025 09:10:38</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>12/10/2024 00:00:00</t>
+          <t>11/10/2024 00:00:00</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1349,21 +1349,21 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 3862 </t>
+          <t xml:space="preserve">C 2023 </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>JOAO CANDIDO C PEREIRA FILHO</t>
+          <t>ROMULO BUNESE ROCHA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>R-Barao Pagante</t>
+          <t>C-Presente</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>15533</v>
+        <v>15549</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1377,20 +1377,20 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2991008</t>
+          <t>2955393</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>357</v>
+        <v>714</v>
       </c>
       <c r="I14" t="n">
-        <v>372.9</v>
+        <v>746.76</v>
       </c>
       <c r="J14" t="n">
-        <v>372.9</v>
+        <v>746.76</v>
       </c>
       <c r="K14" t="n">
-        <v>15.89999999999998</v>
+        <v>32.75999999999999</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>01/22/2025 12:41:40</t>
+          <t>01/26/2025 18:04:15</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1416,21 +1416,21 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 4317 </t>
+          <t xml:space="preserve">C 3276 </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DANILO HENRIQUE PELLEGRINI DE SOUZA</t>
+          <t>VANIA MARIAN GUERINO FARINHA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>R-Barao Pagante</t>
+          <t>C-Presente</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>15533</v>
+        <v>15549</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1444,20 +1444,20 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2993002</t>
+          <t>3104373</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>357</v>
+        <v>764</v>
       </c>
       <c r="I15" t="n">
-        <v>369.3</v>
+        <v>782.78</v>
       </c>
       <c r="J15" t="n">
-        <v>369.3</v>
+        <v>782.78</v>
       </c>
       <c r="K15" t="n">
-        <v>12.30000000000001</v>
+        <v>18.77999999999997</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1466,12 +1466,12 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>01/22/2025 21:34:42</t>
+          <t>01/24/2025 10:55:33</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>12/10/2024 00:00:00</t>
+          <t>01/10/2025 00:00:00</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -1483,17 +1483,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 4317 </t>
+          <t xml:space="preserve">B 3426 </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DANILO HENRIQUE PELLEGRINI DE SOUZA</t>
+          <t>MAURA CRISTHIANE MARCONATTO VECCHI CONTADOR</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>R-Barao Pagante</t>
+          <t>B-Presente</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -1511,20 +1511,20 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2993001</t>
+          <t>3078523</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>357</v>
+        <v>764</v>
       </c>
       <c r="I16" t="n">
-        <v>372.9</v>
+        <v>782.78</v>
       </c>
       <c r="J16" t="n">
-        <v>372.9</v>
+        <v>782.78</v>
       </c>
       <c r="K16" t="n">
-        <v>15.89999999999998</v>
+        <v>18.77999999999997</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1533,12 +1533,12 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>01/22/2025 21:31:33</t>
+          <t>01/24/2025 17:23:27</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>11/10/2024 00:00:00</t>
+          <t>01/10/2025 00:00:00</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -1550,21 +1550,21 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">S 203 </t>
+          <t xml:space="preserve">C 3293 </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DANIELA SASSO PASQUINI</t>
+          <t>MARIANA OLIVA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>S-Aspirante</t>
+          <t>C-Presente</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>15554</v>
+        <v>15549</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1578,20 +1578,20 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>3121972</t>
+          <t>3104415</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>382</v>
+        <v>764</v>
       </c>
       <c r="I17" t="n">
-        <v>391.2</v>
+        <v>782.78</v>
       </c>
       <c r="J17" t="n">
-        <v>391.2</v>
+        <v>782.78</v>
       </c>
       <c r="K17" t="n">
-        <v>9.199999999999989</v>
+        <v>18.77999999999997</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>01/22/2025 22:27:44</t>
+          <t>01/24/2025 14:48:15</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1617,21 +1617,21 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">S 27 </t>
+          <t xml:space="preserve">B 2889 </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LUIZA WOLF PINTO</t>
+          <t>MARCIA CRISTINA CARNIERI MACEDO</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>S-Aspirante</t>
+          <t>B-Viuvo (A) Pg. 100%</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15554</v>
+        <v>15561</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1645,20 +1645,20 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2977871</t>
+          <t>3139168</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>285.6</v>
+        <v>764</v>
       </c>
       <c r="I18" t="n">
-        <v>298.61</v>
+        <v>782.78</v>
       </c>
       <c r="J18" t="n">
-        <v>298.61</v>
+        <v>782.78</v>
       </c>
       <c r="K18" t="n">
-        <v>13.00999999999999</v>
+        <v>18.77999999999997</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1667,12 +1667,12 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>01/22/2025 17:16:57</t>
+          <t>01/24/2025 10:11:12</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>11/10/2024 00:00:00</t>
+          <t>01/10/2025 00:00:00</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -1684,21 +1684,21 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">S 272 </t>
+          <t xml:space="preserve">C 6294 </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>EDUARDO SILVERIO M DE ALBUQUERQUE</t>
+          <t>FERNANDA DE CARVALHO E SILVA TREVISAN</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>S-Aspirante</t>
+          <t>C-Presente</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>15554</v>
+        <v>15549</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1712,20 +1712,20 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2978892</t>
+          <t>2968871</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>357</v>
+        <v>714</v>
       </c>
       <c r="I19" t="n">
-        <v>369.3</v>
+        <v>739.08</v>
       </c>
       <c r="J19" t="n">
-        <v>369.3</v>
+        <v>739.08</v>
       </c>
       <c r="K19" t="n">
-        <v>12.30000000000001</v>
+        <v>25.08000000000004</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>01/22/2025 16:36:15</t>
+          <t>01/24/2025 14:52:48</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1751,21 +1751,21 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">B 2889 </t>
+          <t xml:space="preserve">C 6294 </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MARCIA CRISTINA CARNIERI MACEDO</t>
+          <t>FERNANDA DE CARVALHO E SILVA TREVISAN</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>B-Viuvo (A) Pg. 100%</t>
+          <t>C-Presente</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>15561</v>
+        <v>15549</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1779,20 +1779,20 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2996402</t>
+          <t>2968870</t>
         </is>
       </c>
       <c r="H20" t="n">
         <v>714</v>
       </c>
       <c r="I20" t="n">
-        <v>738.6</v>
+        <v>746.28</v>
       </c>
       <c r="J20" t="n">
-        <v>738.6</v>
+        <v>746.28</v>
       </c>
       <c r="K20" t="n">
-        <v>24.60000000000002</v>
+        <v>32.27999999999997</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1801,12 +1801,12 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>01/22/2025 11:03:50</t>
+          <t>01/24/2025 14:51:48</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>12/10/2024 00:00:00</t>
+          <t>11/10/2024 00:00:00</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -1818,21 +1818,16 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">B 2654 </t>
+          <t xml:space="preserve">B 1611 </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>RAPHAEL JOHANNES JIRASCHEK</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>B-Presente</t>
+          <t>MARIA ALICE PEREIRA DE ARAUJO</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>15533</v>
+        <v>747</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1846,20 +1841,20 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>3075135</t>
+          <t>3119608</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>764</v>
+        <v>191</v>
       </c>
       <c r="I21" t="n">
-        <v>782.28</v>
+        <v>195.66</v>
       </c>
       <c r="J21" t="n">
-        <v>782.28</v>
+        <v>195.66</v>
       </c>
       <c r="K21" t="n">
-        <v>18.27999999999997</v>
+        <v>4.659999999999997</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1868,7 +1863,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>01/22/2025 11:18:41</t>
+          <t>01/24/2025 12:36:42</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1885,12 +1880,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">B 2619 </t>
+          <t xml:space="preserve">B 1397 </t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ANDREA FARIA VIRMOND DEMARIO</t>
+          <t>ROBERTA ZANICOTTI OLIVEIRA TARESZKIEWICZ</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1913,20 +1908,20 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2932550</t>
+          <t>2927630</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>714</v>
       </c>
       <c r="I22" t="n">
-        <v>745.8</v>
+        <v>746.52</v>
       </c>
       <c r="J22" t="n">
-        <v>745.8</v>
+        <v>746.52</v>
       </c>
       <c r="K22" t="n">
-        <v>31.79999999999995</v>
+        <v>32.51999999999998</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1935,7 +1930,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>01/22/2025 18:13:27</t>
+          <t>01/25/2025 10:38:08</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -1952,12 +1947,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">B 2619 </t>
+          <t xml:space="preserve">B 1397 </t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ANDREA FARIA VIRMOND DEMARIO</t>
+          <t>ROBERTA ZANICOTTI OLIVEIRA TARESZKIEWICZ</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1980,20 +1975,20 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2932551</t>
+          <t>2927631</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>714</v>
       </c>
       <c r="I23" t="n">
-        <v>738.6</v>
+        <v>739.3200000000001</v>
       </c>
       <c r="J23" t="n">
-        <v>738.6</v>
+        <v>739.3200000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>24.60000000000002</v>
+        <v>25.32000000000005</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -2002,7 +1997,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>01/22/2025 18:14:28</t>
+          <t>01/25/2025 10:59:14</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2019,21 +2014,21 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">C 2009 </t>
+          <t xml:space="preserve">C 4438 </t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CAMILA MARINONI LOPES BERNARDES</t>
+          <t>ANNA BEATRIZ NICOLAU DOS SANTOS</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>C-Presente</t>
+          <t>C-Ausente</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>15549</v>
+        <v>15692</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2047,20 +2042,20 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>3100098</t>
+          <t>3120505</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>764</v>
+        <v>191</v>
       </c>
       <c r="I24" t="n">
-        <v>782.28</v>
+        <v>195.66</v>
       </c>
       <c r="J24" t="n">
-        <v>782.28</v>
+        <v>195.66</v>
       </c>
       <c r="K24" t="n">
-        <v>18.27999999999997</v>
+        <v>4.659999999999997</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -2069,7 +2064,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>01/22/2025 11:56:19</t>
+          <t>01/24/2025 14:59:24</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2086,21 +2081,21 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">C 6509 </t>
+          <t xml:space="preserve">B 3887 </t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>RENATA CAROLINA DE CAMPOS</t>
+          <t>GABRIEL MEDEIROS REGNIER</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>C-Presente</t>
+          <t>B-Presente</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>15549</v>
+        <v>15533</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2114,20 +2109,20 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2969389</t>
+          <t>2937828</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>714</v>
       </c>
       <c r="I25" t="n">
-        <v>738.6</v>
+        <v>746.52</v>
       </c>
       <c r="J25" t="n">
-        <v>738.6</v>
+        <v>746.52</v>
       </c>
       <c r="K25" t="n">
-        <v>24.60000000000002</v>
+        <v>32.51999999999998</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -2136,12 +2131,12 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>01/22/2025 14:01:52</t>
+          <t>01/25/2025 09:02:50</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>12/10/2024 00:00:00</t>
+          <t>11/10/2024 00:00:00</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2153,48 +2148,48 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">C 997 </t>
+          <t xml:space="preserve">R 2866 </t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FABIO GALLIANO DAROSZ ZEIGELBOIM</t>
+          <t>HUGO IRAPUAN LACERDA WERNECK</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>C-Ausente</t>
+          <t>R-Barao Pagante</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>15692</v>
+        <v>15533</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0102</t>
+          <t>0101</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Semestralidade</t>
+          <t>Mensalidades</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>3120101</t>
+          <t>2987988</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1146</v>
+        <v>357</v>
       </c>
       <c r="I26" t="n">
-        <v>1173.48</v>
+        <v>373.14</v>
       </c>
       <c r="J26" t="n">
-        <v>1173.48</v>
+        <v>373.14</v>
       </c>
       <c r="K26" t="n">
-        <v>27.48000000000002</v>
+        <v>16.13999999999999</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -2203,12 +2198,12 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>01/22/2025 16:55:22</t>
+          <t>01/24/2025 15:14:02</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>01/10/2025 00:00:00</t>
+          <t>11/10/2024 00:00:00</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -2220,21 +2215,21 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">B 1682 </t>
+          <t xml:space="preserve">C 3426 </t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>LARA DANIELLE SANTOS FERREIRA</t>
+          <t>RAFAELA LUNDGREN THA</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>B-Ausente</t>
+          <t>C-Ausente</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>15687</v>
+        <v>15692</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2248,20 +2243,20 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>3119610</t>
+          <t>3120399</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>1146</v>
       </c>
       <c r="I27" t="n">
-        <v>1173.48</v>
+        <v>1174.24</v>
       </c>
       <c r="J27" t="n">
-        <v>1173.48</v>
+        <v>1174.24</v>
       </c>
       <c r="K27" t="n">
-        <v>27.48000000000002</v>
+        <v>28.24000000000001</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -2270,7 +2265,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>01/22/2025 17:25:44</t>
+          <t>01/24/2025 14:06:27</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2287,12 +2282,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">C 4838 </t>
+          <t xml:space="preserve">C 649 </t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MARIANNE BAUER CASTRO DE CONTESSA</t>
+          <t>JULIANA SAVASSI VIANNA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2315,20 +2310,20 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>3120545</t>
+          <t>3120059</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>1146</v>
       </c>
       <c r="I28" t="n">
-        <v>1173.48</v>
+        <v>1174.24</v>
       </c>
       <c r="J28" t="n">
-        <v>1173.48</v>
+        <v>1174.24</v>
       </c>
       <c r="K28" t="n">
-        <v>27.48000000000002</v>
+        <v>28.24000000000001</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -2337,7 +2332,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>01/22/2025 11:09:20</t>
+          <t>01/24/2025 12:43:31</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2354,48 +2349,48 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">B 4808 </t>
+          <t xml:space="preserve">C 837 </t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CAMILA PRADI BONILHA</t>
+          <t>HIRAN FRANCO DO LAGO</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>B-Ausente</t>
+          <t>C-Ausente</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>15687</v>
+        <v>15692</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0102</t>
+          <t>0106</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Semestralidade</t>
+          <t>Mensalidades</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>3119734</t>
+          <t>3120084</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>1146</v>
+        <v>955</v>
       </c>
       <c r="I29" t="n">
-        <v>1173.48</v>
+        <v>978.58</v>
       </c>
       <c r="J29" t="n">
-        <v>1173.48</v>
+        <v>978.58</v>
       </c>
       <c r="K29" t="n">
-        <v>27.48000000000002</v>
+        <v>23.58000000000004</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -2404,7 +2399,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>01/22/2025 10:24:27</t>
+          <t>01/24/2025 16:40:27</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2421,62 +2416,62 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">B 6083 </t>
+          <t xml:space="preserve">S 4518 </t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PATRICIA LEINER GOMES</t>
+          <t>TOBIAS DE MACEDO NETO</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>B-Presente</t>
+          <t>S-Asp.Ausente</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>16156</v>
+        <v>15720</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0305</t>
+          <t>0106</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Escol. De Natacao</t>
+          <t>Mensalidades</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>3149016</t>
+          <t>3119967</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>1990</v>
+        <v>191</v>
       </c>
       <c r="I30" t="n">
-        <v>1791</v>
+        <v>195.66</v>
       </c>
       <c r="J30" t="n">
-        <v>1791</v>
+        <v>195.66</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>4.659999999999997</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>199.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>01/22/2025 12:18:01</t>
+          <t>01/24/2025 14:38:17</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>01/27/2025 12:14:07</t>
+          <t>01/10/2025 00:00:00</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -2488,62 +2483,62 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">C 5736 </t>
+          <t xml:space="preserve">B 3075 </t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>RENATA KUBRUSLY CRUZ DE GODOY</t>
+          <t>GONCALO MARINS FARFUD</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>C-Presente</t>
+          <t>B-Presente</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>16525</v>
+        <v>16044</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0318</t>
+          <t>0303</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Colonia De Ferias</t>
+          <t>Escol. De Tenis</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>3063617</t>
+          <t>3149091</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>50</v>
+        <v>890</v>
       </c>
       <c r="I31" t="n">
-        <v>51.92</v>
+        <v>756.5</v>
       </c>
       <c r="J31" t="n">
-        <v>51.92</v>
+        <v>756.5</v>
       </c>
       <c r="K31" t="n">
-        <v>1.920000000000002</v>
+        <v>0</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>133.50</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>01/22/2025 07:32:49</t>
+          <t>01/26/2025 09:11:13</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>12/07/2024 00:00:00</t>
+          <t>01/27/2025 08:47:45</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -2555,62 +2550,62 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">C 5736 </t>
+          <t xml:space="preserve">B 958 </t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>RENATA KUBRUSLY CRUZ DE GODOY</t>
+          <t>PABLO MANOEL P SOBREIRO</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>C-Presente</t>
+          <t>B-Presente</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>4356</v>
+        <v>16273</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0329</t>
+          <t>0321</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Pilates - Studio De Pilates</t>
+          <t>Escol. Jiu-Jitsu</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>3147120</t>
+          <t>3150093</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>208</v>
+        <v>890</v>
       </c>
       <c r="I32" t="n">
-        <v>212.72</v>
+        <v>801</v>
       </c>
       <c r="J32" t="n">
-        <v>212.72</v>
+        <v>801</v>
       </c>
       <c r="K32" t="n">
-        <v>4.719999999999999</v>
+        <v>0</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>89.00</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>01/22/2025 07:32:49</t>
+          <t>01/25/2025 13:42:11</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>01/14/2025 00:00:00</t>
+          <t>01/28/2025 13:39:22</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -2622,12 +2617,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">C 6513 </t>
+          <t xml:space="preserve">C 4452 </t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FABIANA FERREIRA PESSOA</t>
+          <t>MARIANA APPEL ANDRADE</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2636,34 +2631,34 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>747</v>
+        <v>4265</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0601</t>
+          <t>0330</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Sauna Feminina</t>
+          <t>Swasthya Yoga - Kjuliane</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>3139832</t>
+          <t>3145935</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="I33" t="n">
-        <v>7.14</v>
+        <v>88.14</v>
       </c>
       <c r="J33" t="n">
-        <v>7.14</v>
+        <v>88.14</v>
       </c>
       <c r="K33" t="n">
-        <v>0.1399999999999997</v>
+        <v>2.140000000000001</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -2672,12 +2667,12 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>01/22/2025 09:53:03</t>
+          <t>01/24/2025 10:22:02</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>12/16/2024 00:00:00</t>
+          <t>01/10/2025 00:00:00</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -2689,12 +2684,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">B 4726 </t>
+          <t xml:space="preserve">B 4213 </t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MARCOS MATTIOLI</t>
+          <t>MARIA ALICE PINHEIRO L ANTONIETTO</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2703,34 +2698,34 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>15241</v>
+        <v>4265</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0703</t>
+          <t>0330</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Aluguel Arm. Do Golfe - Masc</t>
+          <t>Swasthya Yoga - Kjuliane</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>3148536</t>
+          <t>3145915</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>764</v>
+        <v>172</v>
       </c>
       <c r="I34" t="n">
-        <v>764</v>
+        <v>176.34</v>
       </c>
       <c r="J34" t="n">
-        <v>764</v>
+        <v>176.34</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>4.340000000000003</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -2739,12 +2734,12 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>01/22/2025 16:45:03</t>
+          <t>01/25/2025 12:15:07</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>02/20/2025 00:00:00</t>
+          <t>01/10/2025 00:00:00</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -2756,48 +2751,48 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">B 4726 </t>
+          <t xml:space="preserve">C 4452 </t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MARCOS MATTIOLI</t>
+          <t>MARIANA APPEL ANDRADE</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>B-Presente</t>
+          <t>C-Presente</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>40921</v>
+        <v>4265</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1104</t>
+          <t>0330</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Taxa Material Esportivo Golfe</t>
+          <t>Swasthya Yoga - Kjuliane</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>3146781</t>
+          <t>3145936</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>188.1</v>
+        <v>86</v>
       </c>
       <c r="I35" t="n">
-        <v>188.1</v>
+        <v>88.14</v>
       </c>
       <c r="J35" t="n">
-        <v>188.1</v>
+        <v>88.14</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>2.140000000000001</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -2806,12 +2801,12 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>01/22/2025 16:44:23</t>
+          <t>01/24/2025 10:19:24</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>02/10/2025 00:00:00</t>
+          <t>01/10/2025 00:00:00</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -2823,12 +2818,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">B 4726 </t>
+          <t xml:space="preserve">B 4737 </t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MARCOS MATTIOLI</t>
+          <t>EDUARDO RODRIGO PUPPI MORO</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2837,31 +2832,31 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>41301</v>
+        <v>16301</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1907</t>
+          <t>0336</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Taxa Federacao De Golfe</t>
+          <t>Personal Trainer Sbsa</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>3148029</t>
+          <t>3149215</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="I36" t="n">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="J36" t="n">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -2873,12 +2868,12 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>01/22/2025 16:43:41</t>
+          <t>01/24/2025 11:04:56</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>01/24/2025 00:00:00</t>
+          <t>01/26/2025 00:00:00</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -2890,48 +2885,48 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">C 7686 </t>
+          <t xml:space="preserve">B 1848 </t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>DAVID JUNQUEIRA DE C KUNZE</t>
+          <t>MARCOS CHESI DE OLIVEIRA JUNIOR</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>C-Presente</t>
+          <t>B-Presente</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>28650</v>
+        <v>16301</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1909</t>
+          <t>0336</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Clubinho (Pacote)</t>
+          <t>Personal Trainer Sbsa</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>3148111</t>
+          <t>3048111</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>22</v>
+        <v>584</v>
       </c>
       <c r="I37" t="n">
-        <v>22</v>
+        <v>610.3099999999999</v>
       </c>
       <c r="J37" t="n">
-        <v>22</v>
+        <v>610.3099999999999</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>26.30999999999995</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -2940,12 +2935,12 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>01/22/2025 11:52:39</t>
+          <t>01/26/2025 10:48:42</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>01/17/2025 00:00:00</t>
+          <t>11/10/2024 00:00:00</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -2957,12 +2952,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">C 2040 </t>
+          <t xml:space="preserve">C 6756 </t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>THOMAZ CARVALHO COSTA</t>
+          <t>AUGUSTO ROCHA PINTAL</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2971,31 +2966,31 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>28650</v>
+        <v>16301</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1909</t>
+          <t>0336</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Clubinho (Pacote)</t>
+          <t>Personal Trainer Sbsa</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>3147304</t>
+          <t>3149149</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>55</v>
+        <v>198</v>
       </c>
       <c r="I38" t="n">
-        <v>55</v>
+        <v>198</v>
       </c>
       <c r="J38" t="n">
-        <v>55</v>
+        <v>198</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3007,12 +3002,12 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>01/22/2025 14:02:40</t>
+          <t>01/24/2025 09:17:53</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>01/09/2025 00:00:00</t>
+          <t>01/25/2025 00:00:00</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -3024,12 +3019,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">C 5151 </t>
+          <t xml:space="preserve">C 1219 </t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>JOSE RICARDO DE MOURA BRITO MURICY</t>
+          <t>MANOELA BASSANI CASTRO</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -3038,34 +3033,34 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>33689</v>
+        <v>16301</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3024</t>
+          <t>0336</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Torneio De Basquete</t>
+          <t>Personal Trainer Sbsa</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>3045297</t>
+          <t>3149211</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="I39" t="n">
-        <v>41.63</v>
+        <v>228</v>
       </c>
       <c r="J39" t="n">
-        <v>41.63</v>
+        <v>228</v>
       </c>
       <c r="K39" t="n">
-        <v>1.630000000000003</v>
+        <v>0</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -3074,12 +3069,12 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>01/22/2025 21:20:33</t>
+          <t>01/24/2025 10:53:55</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>10/31/2024 00:00:00</t>
+          <t>01/26/2025 00:00:00</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -3091,105 +3086,909 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">B 5823 </t>
+          <t xml:space="preserve">C 1967 </t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CRISTIANO KLAS</t>
+          <t>LETICIA PEREIRA DA COSTA GOIS NOGUEIRA</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>C-Presente</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>21964</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0443</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Curso De Artes</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>3149243</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1779</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1779</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1779</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>01/25/2025 10:37:49</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>01/27/2025 11:27:23</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Pix</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B 4271 </t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>LETICIA CRISTINA DALLEDONE SIQUEIRA REIN</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>B-Presente</t>
         </is>
       </c>
-      <c r="D40" t="n">
-        <v>41981</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>3548</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Hatha Yoga-Viviana Haluch</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>3145910</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>86</v>
-      </c>
-      <c r="I40" t="n">
-        <v>88.08</v>
-      </c>
-      <c r="J40" t="n">
-        <v>88.08</v>
-      </c>
-      <c r="K40" t="n">
-        <v>2.079999999999998</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>01/22/2025 08:21:13</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>01/10/2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>Pix</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
       <c r="D41" t="n">
-        <v>15073</v>
+        <v>21964</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>8888</t>
+          <t>0443</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Curso De Artes</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>3149204</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>-32.4</v>
+        <v>1657</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1491.3</v>
       </c>
       <c r="J41" t="n">
-        <v>-32.4</v>
+        <v>1491.3</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>165.70</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>01/24/2025 01:50:37</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>01/27/2025 01:35:06</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Pix</t>
+        </is>
+      </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C 1967 </t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>LETICIA PEREIRA DA COSTA GOIS NOGUEIRA</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>C-Presente</t>
+        </is>
+      </c>
       <c r="D42" t="n">
+        <v>747</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0463</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Devolução Curso De Artes</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>3149242</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>-1657</v>
+      </c>
+      <c r="I42" t="n">
+        <v>-1657</v>
+      </c>
+      <c r="J42" t="n">
+        <v>-1657</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>01/25/2025 10:37:49</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>01/27/2025 11:26:17</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Pix</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B 1792 </t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>HENRIQUE LEAL VIANNA</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>B-Presente</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>40552</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1083</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Aula De Beach Tennis - Marcelo Stoberl</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>3150030</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="I43" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="J43" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>01/25/2025 09:08:56</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>02/07/2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Pix</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B 1792 </t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>HENRIQUE LEAL VIANNA</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>B-Presente</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>40552</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1083</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Aula De Beach Tennis - Marcelo Stoberl</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>3150031</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="I44" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="J44" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>01/25/2025 09:08:56</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>02/07/2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Pix</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B 2555 </t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>TATIANA ALMEIDA BLITZKOW MARAN</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>B-Presente</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>15645</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1504</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Taxa Despesa Cobranca</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>3148810</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>250</v>
+      </c>
+      <c r="I45" t="n">
+        <v>250</v>
+      </c>
+      <c r="J45" t="n">
+        <v>250</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>01/24/2025 11:36:39</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>01/20/2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Pix</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C 608 </t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>FERNANDA TRAMUJAS AZEVEDO BUENO DO NASCIMENTO</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>C-Ausente</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>28650</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1908</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Clubinho</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>3146070</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+      <c r="I46" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.09999999999999964</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>01/24/2025 17:19:56</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>01/02/2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Pix</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B 1272 </t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>GABRIELE DE MACEDO PINTO</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>B-Presente</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>28650</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1909</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Clubinho (Pacote)</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>3141642</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>20</v>
+      </c>
+      <c r="I47" t="n">
+        <v>20</v>
+      </c>
+      <c r="J47" t="n">
+        <v>20</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>01/24/2025 21:57:16</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>12/21/2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Pix</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C 2114 </t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>MARCEL BENTO AMARAL</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>C-Presente</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>28650</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1909</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Clubinho (Pacote)</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>3149041</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>220</v>
+      </c>
+      <c r="I48" t="n">
+        <v>220</v>
+      </c>
+      <c r="J48" t="n">
+        <v>220</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>01/24/2025 14:48:18</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>01/22/2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Pix</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C 6756 </t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>AUGUSTO ROCHA PINTAL</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>C-Presente</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>28650</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1909</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Clubinho (Pacote)</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>3149207</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>220</v>
+      </c>
+      <c r="I49" t="n">
+        <v>220</v>
+      </c>
+      <c r="J49" t="n">
+        <v>220</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>01/24/2025 09:17:53</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>01/24/2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Pix</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C 2387 </t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>THIAGO CAMARGO DUSZCZAK</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>C-Presente</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>28650</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1909</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Clubinho (Pacote)</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>3149065</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>99</v>
+      </c>
+      <c r="I50" t="n">
+        <v>99</v>
+      </c>
+      <c r="J50" t="n">
+        <v>99</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>01/24/2025 15:53:58</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>01/22/2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Pix</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B 1272 </t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>GABRIELE DE MACEDO PINTO</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>B-Presente</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>28650</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1909</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Clubinho (Pacote)</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>3141643</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>18</v>
+      </c>
+      <c r="I51" t="n">
+        <v>18</v>
+      </c>
+      <c r="J51" t="n">
+        <v>18</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>01/24/2025 21:57:16</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>12/21/2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Pix</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C 6758 </t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>BRUNO LUIZ VIANNA CLEMENTI</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>C-Presente</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>28650</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>1909</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Clubinho (Pacote)</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>3150058</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>55</v>
+      </c>
+      <c r="I52" t="n">
+        <v>55</v>
+      </c>
+      <c r="J52" t="n">
+        <v>55</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>01/26/2025 17:36:49</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>01/25/2025 00:00:00</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Pix</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="D53" t="n">
         <v>15073</v>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>8888</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>-42.3</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-42.3</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="D54" t="n">
+        <v>15073</v>
+      </c>
+      <c r="E54" t="inlineStr">
         <is>
           <t>9999</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H54" t="n">
         <v>-0.29</v>
       </c>
-      <c r="J42" t="n">
+      <c r="J54" t="n">
         <v>-0.29</v>
       </c>
-      <c r="K42" t="n">
+      <c r="K54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3204,7 +4003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3267,17 +4066,17 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>2932550 B 2619  ANDREA FARIA VIRMOND DEMARIO</t>
+          <t>2927630 B 1397  ROBERTA ZANICOTTI OLIVEIRA TARESZKIEWICZ</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>714</v>
       </c>
       <c r="F2" t="n">
-        <v>31.79999999999995</v>
+        <v>32.51999999999998</v>
       </c>
       <c r="G2" t="n">
-        <v>745.8</v>
+        <v>746.52</v>
       </c>
     </row>
     <row r="3">
@@ -3286,17 +4085,17 @@
       <c r="C3" s="1" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>2932551 B 2619  ANDREA FARIA VIRMOND DEMARIO</t>
+          <t>2927631 B 1397  ROBERTA ZANICOTTI OLIVEIRA TARESZKIEWICZ</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>714</v>
       </c>
       <c r="F3" t="n">
-        <v>24.60000000000002</v>
+        <v>25.32000000000005</v>
       </c>
       <c r="G3" t="n">
-        <v>738.6</v>
+        <v>739.3200000000001</v>
       </c>
     </row>
     <row r="4">
@@ -3305,17 +4104,17 @@
       <c r="C4" s="1" t="n"/>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>3075135 B 2654  RAPHAEL JOHANNES JIRASCHEK</t>
+          <t>2937828 B 3887  GABRIEL MEDEIROS REGNIER</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>764</v>
+        <v>714</v>
       </c>
       <c r="F4" t="n">
-        <v>18.27999999999997</v>
+        <v>32.51999999999998</v>
       </c>
       <c r="G4" t="n">
-        <v>782.28</v>
+        <v>746.52</v>
       </c>
     </row>
     <row r="5">
@@ -3324,40 +4123,36 @@
       <c r="C5" s="1" t="n"/>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>Subtotal</t>
+          <t>3066811 B 617  JULIANA MARCELA NOVAKOWSKI</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2192</v>
+        <v>764</v>
       </c>
       <c r="F5" t="n">
-        <v>74.67999999999995</v>
+        <v>19.02999999999997</v>
       </c>
       <c r="G5" t="n">
-        <v>2266.68</v>
+        <v>783.03</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>R-Barao Pagante</t>
-        </is>
-      </c>
+      <c r="C6" s="1" t="n"/>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>2991008 R 3862  JOAO CANDIDO C PEREIRA FILHO</t>
+          <t>3078523 B 3426  MAURA CRISTHIANE MARCONATTO VECCHI CONTADOR</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>357</v>
+        <v>764</v>
       </c>
       <c r="F6" t="n">
-        <v>15.89999999999998</v>
+        <v>18.77999999999997</v>
       </c>
       <c r="G6" t="n">
-        <v>372.9</v>
+        <v>782.78</v>
       </c>
     </row>
     <row r="7">
@@ -3366,36 +4161,40 @@
       <c r="C7" s="1" t="n"/>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>2993001 R 4317  DANILO HENRIQUE PELLEGRINI DE SOUZA</t>
+          <t>Subtotal</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>357</v>
+        <v>3670</v>
       </c>
       <c r="F7" t="n">
-        <v>15.89999999999998</v>
+        <v>128.17</v>
       </c>
       <c r="G7" t="n">
-        <v>372.9</v>
+        <v>3798.17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
-      <c r="C8" s="1" t="n"/>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>R-Barao Pagante</t>
+        </is>
+      </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>2993002 R 4317  DANILO HENRIQUE PELLEGRINI DE SOUZA</t>
+          <t>2987988 R 2866  HUGO IRAPUAN LACERDA WERNECK</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>357</v>
       </c>
       <c r="F8" t="n">
-        <v>12.30000000000001</v>
+        <v>16.13999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>369.3</v>
+        <v>373.14</v>
       </c>
     </row>
     <row r="9">
@@ -3404,55 +4203,63 @@
       <c r="C9" s="1" t="n"/>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>3030200 R 3755  LINCOLN BUQUERA DE FREITAS OLIVEIRA</t>
+          <t>Subtotal</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>357</v>
       </c>
       <c r="F9" t="n">
-        <v>15.77999999999997</v>
+        <v>16.13999999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>372.78</v>
+        <v>373.14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
-      <c r="C10" s="1" t="n"/>
-      <c r="D10" s="1" t="inlineStr">
-        <is>
-          <t>3030201 R 3755  LINCOLN BUQUERA DE FREITAS OLIVEIRA</t>
-        </is>
-      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>Subtotal</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>357</v>
+        <v>4027</v>
       </c>
       <c r="F10" t="n">
-        <v>12.30000000000001</v>
+        <v>144.3099999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>369.3</v>
+        <v>4171.31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="n"/>
-      <c r="C11" s="1" t="n"/>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>101 Mensalidades|Contábil: 15549</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>C-Presente</t>
+        </is>
+      </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>3132061 R 3465  EMILIO HOFFMANN GOMES JUNIOR</t>
+          <t>2955393 C 2023  ROMULO BUNESE ROCHA</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>382</v>
+        <v>714</v>
       </c>
       <c r="F11" t="n">
-        <v>9.199999999999989</v>
+        <v>32.75999999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>391.2</v>
+        <v>746.76</v>
       </c>
     </row>
     <row r="12">
@@ -3461,17 +4268,17 @@
       <c r="C12" s="1" t="n"/>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>3133232 R 3755  LINCOLN BUQUERA DE FREITAS OLIVEIRA</t>
+          <t>2955394 C 2023  ROMULO BUNESE ROCHA</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>382</v>
+        <v>714</v>
       </c>
       <c r="F12" t="n">
-        <v>9.199999999999989</v>
+        <v>25.55999999999995</v>
       </c>
       <c r="G12" t="n">
-        <v>391.2</v>
+        <v>739.5599999999999</v>
       </c>
     </row>
     <row r="13">
@@ -3480,63 +4287,55 @@
       <c r="C13" s="1" t="n"/>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>Subtotal</t>
+          <t>2956414 C 2284  ADRIANO AGUIAR SOCHER</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2549</v>
+        <v>714</v>
       </c>
       <c r="F13" t="n">
-        <v>90.57999999999993</v>
+        <v>32.03999999999996</v>
       </c>
       <c r="G13" t="n">
-        <v>2639.579999999999</v>
+        <v>746.04</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>Subtotal</t>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr"/>
+      <c r="C14" s="1" t="n"/>
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>2958582 C 2913  FERNANDO BUFREM</t>
+        </is>
+      </c>
       <c r="E14" t="n">
-        <v>4741</v>
+        <v>714</v>
       </c>
       <c r="F14" t="n">
-        <v>165.2599999999999</v>
+        <v>32.27999999999997</v>
       </c>
       <c r="G14" t="n">
-        <v>4906.26</v>
+        <v>746.28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>101 Mensalidades|Contábil: 15549</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t>C-Presente</t>
-        </is>
-      </c>
+      <c r="B15" s="1" t="n"/>
+      <c r="C15" s="1" t="n"/>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>2955331 C 2009  CAMILA MARINONI LOPES BERNARDES</t>
+          <t>2959683 C 3240  SIBELLE PEREIRA DE SOUZA</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v>714</v>
       </c>
       <c r="F15" t="n">
-        <v>31.79999999999995</v>
+        <v>32.51999999999998</v>
       </c>
       <c r="G15" t="n">
-        <v>745.8</v>
+        <v>746.52</v>
       </c>
     </row>
     <row r="16">
@@ -3545,17 +4344,17 @@
       <c r="C16" s="1" t="n"/>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>2955332 C 2009  CAMILA MARINONI LOPES BERNARDES</t>
+          <t>2968870 C 6294  FERNANDA DE CARVALHO E SILVA TREVISAN</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>714</v>
       </c>
       <c r="F16" t="n">
-        <v>24.60000000000002</v>
+        <v>32.27999999999997</v>
       </c>
       <c r="G16" t="n">
-        <v>738.6</v>
+        <v>746.28</v>
       </c>
     </row>
     <row r="17">
@@ -3564,17 +4363,17 @@
       <c r="C17" s="1" t="n"/>
       <c r="D17" s="1" t="inlineStr">
         <is>
-          <t>2967083 C 5653  GUSTAVO PRADI ADAM</t>
+          <t>2968871 C 6294  FERNANDA DE CARVALHO E SILVA TREVISAN</t>
         </is>
       </c>
       <c r="E17" t="n">
         <v>714</v>
       </c>
       <c r="F17" t="n">
-        <v>31.79999999999995</v>
+        <v>25.08000000000004</v>
       </c>
       <c r="G17" t="n">
-        <v>745.8</v>
+        <v>739.08</v>
       </c>
     </row>
     <row r="18">
@@ -3583,17 +4382,17 @@
       <c r="C18" s="1" t="n"/>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>2967084 C 5653  GUSTAVO PRADI ADAM</t>
+          <t>3096006 C 961  FLAVIA GOMES STECHMAN</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>714</v>
+        <v>764</v>
       </c>
       <c r="F18" t="n">
-        <v>24.60000000000002</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>738.6</v>
+        <v>764</v>
       </c>
     </row>
     <row r="19">
@@ -3602,17 +4401,17 @@
       <c r="C19" s="1" t="n"/>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>2968183 C 6022  PAULO AUGUSTO ALVES MEYER FILHO</t>
+          <t>3096362 C 1053  LUISA CORREA LOBO</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>714</v>
+        <v>764</v>
       </c>
       <c r="F19" t="n">
-        <v>31.79999999999995</v>
+        <v>19.27999999999997</v>
       </c>
       <c r="G19" t="n">
-        <v>745.8</v>
+        <v>783.28</v>
       </c>
     </row>
     <row r="20">
@@ -3621,17 +4420,17 @@
       <c r="C20" s="1" t="n"/>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>2969388 C 6509  RENATA CAROLINA DE CAMPOS</t>
+          <t>3098040 C 1500  LEONARDO VECCHI CONTADOR</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>714</v>
+        <v>764</v>
       </c>
       <c r="F20" t="n">
-        <v>31.79999999999995</v>
+        <v>18.77999999999997</v>
       </c>
       <c r="G20" t="n">
-        <v>745.8</v>
+        <v>782.78</v>
       </c>
     </row>
     <row r="21">
@@ -3640,17 +4439,17 @@
       <c r="C21" s="1" t="n"/>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>2969389 C 6509  RENATA CAROLINA DE CAMPOS</t>
+          <t>3100147 C 2023  ROMULO BUNESE ROCHA</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>714</v>
+        <v>764</v>
       </c>
       <c r="F21" t="n">
-        <v>24.60000000000002</v>
+        <v>19.27999999999997</v>
       </c>
       <c r="G21" t="n">
-        <v>738.6</v>
+        <v>783.28</v>
       </c>
     </row>
     <row r="22">
@@ -3659,17 +4458,17 @@
       <c r="C22" s="1" t="n"/>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t>3100098 C 2009  CAMILA MARINONI LOPES BERNARDES</t>
+          <t>3100521 C 2115  CARLOS AUGUSTO BEDUSCHI</t>
         </is>
       </c>
       <c r="E22" t="n">
         <v>764</v>
       </c>
       <c r="F22" t="n">
-        <v>18.27999999999997</v>
+        <v>18.77999999999997</v>
       </c>
       <c r="G22" t="n">
-        <v>782.28</v>
+        <v>782.78</v>
       </c>
     </row>
     <row r="23">
@@ -3678,17 +4477,17 @@
       <c r="C23" s="1" t="n"/>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>3108347 C 4487  JOAO FRANCISCO M SOARES</t>
+          <t>3102726 C 2766  MATHEUS ARZUA CASAGRANDE</t>
         </is>
       </c>
       <c r="E23" t="n">
         <v>764</v>
       </c>
       <c r="F23" t="n">
-        <v>18.27999999999997</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>782.28</v>
+        <v>764</v>
       </c>
     </row>
     <row r="24">
@@ -3697,17 +4496,17 @@
       <c r="C24" s="1" t="n"/>
       <c r="D24" s="1" t="inlineStr">
         <is>
-          <t>3111388 C 5653  GUSTAVO PRADI ADAM</t>
+          <t>3104373 C 3276  VANIA MARIAN GUERINO FARINHA</t>
         </is>
       </c>
       <c r="E24" t="n">
         <v>764</v>
       </c>
       <c r="F24" t="n">
-        <v>18.27999999999997</v>
+        <v>18.77999999999997</v>
       </c>
       <c r="G24" t="n">
-        <v>782.28</v>
+        <v>782.78</v>
       </c>
     </row>
     <row r="25">
@@ -3716,101 +4515,101 @@
       <c r="C25" s="1" t="n"/>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t>Subtotal</t>
+          <t>3104415 C 3293  MARIANA OLIVA</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>7290</v>
+        <v>764</v>
       </c>
       <c r="F25" t="n">
-        <v>255.8399999999998</v>
+        <v>18.77999999999997</v>
       </c>
       <c r="G25" t="n">
-        <v>7545.839999999999</v>
+        <v>782.78</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="1" t="n"/>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t>Subtotal</t>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr"/>
+      <c r="C26" s="1" t="n"/>
+      <c r="D26" s="1" t="inlineStr">
+        <is>
+          <t>3112862 C 6294  FERNANDA DE CARVALHO E SILVA TREVISAN</t>
+        </is>
+      </c>
       <c r="E26" t="n">
-        <v>7290</v>
+        <v>764</v>
       </c>
       <c r="F26" t="n">
-        <v>255.8399999999998</v>
+        <v>18.77999999999997</v>
       </c>
       <c r="G26" t="n">
-        <v>7545.839999999999</v>
+        <v>782.78</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>101 Mensalidades|Contábil: 15554</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t>S-Aspirante</t>
-        </is>
-      </c>
+      <c r="B27" s="1" t="n"/>
+      <c r="C27" s="1" t="n"/>
       <c r="D27" s="1" t="inlineStr">
         <is>
-          <t>2977871 S 27  LUIZA WOLF PINTO</t>
+          <t>Subtotal</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>285.6</v>
+        <v>11874</v>
       </c>
       <c r="F27" t="n">
-        <v>13.00999999999999</v>
+        <v>344.9799999999997</v>
       </c>
       <c r="G27" t="n">
-        <v>298.61</v>
+        <v>12218.98</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="1" t="n"/>
-      <c r="C28" s="1" t="n"/>
-      <c r="D28" s="1" t="inlineStr">
-        <is>
-          <t>2978892 S 272  EDUARDO SILVERIO M DE ALBUQUERQUE</t>
-        </is>
-      </c>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>Subtotal</t>
+        </is>
+      </c>
+      <c r="D28" s="1" t="inlineStr"/>
       <c r="E28" t="n">
-        <v>357</v>
+        <v>11874</v>
       </c>
       <c r="F28" t="n">
-        <v>12.30000000000001</v>
+        <v>344.9799999999997</v>
       </c>
       <c r="G28" t="n">
-        <v>369.3</v>
+        <v>12218.98</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
-      <c r="B29" s="1" t="n"/>
-      <c r="C29" s="1" t="n"/>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>101 Mensalidades|Contábil: 15561</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>B-Viuvo (A) Pg. 100%</t>
+        </is>
+      </c>
       <c r="D29" s="1" t="inlineStr">
         <is>
-          <t>3121972 S 203  DANIELA SASSO PASQUINI</t>
+          <t>3139168 B 2889  MARCIA CRISTINA CARNIERI MACEDO</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>382</v>
+        <v>764</v>
       </c>
       <c r="F29" t="n">
-        <v>9.199999999999989</v>
+        <v>18.77999999999997</v>
       </c>
       <c r="G29" t="n">
-        <v>391.2</v>
+        <v>782.78</v>
       </c>
     </row>
     <row r="30">
@@ -3823,13 +4622,13 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1024.6</v>
+        <v>764</v>
       </c>
       <c r="F30" t="n">
-        <v>34.50999999999999</v>
+        <v>18.77999999999997</v>
       </c>
       <c r="G30" t="n">
-        <v>1059.11</v>
+        <v>782.78</v>
       </c>
     </row>
     <row r="31">
@@ -3842,40 +4641,40 @@
       </c>
       <c r="D31" s="1" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>1024.6</v>
+        <v>764</v>
       </c>
       <c r="F31" t="n">
-        <v>34.50999999999999</v>
+        <v>18.77999999999997</v>
       </c>
       <c r="G31" t="n">
-        <v>1059.11</v>
+        <v>782.78</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>101 Mensalidades|Contábil: 15561</t>
+          <t>101 Mensalidades|Contábil: 15692</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>B-Viuvo (A) Pg. 100%</t>
+          <t>C-Ausente</t>
         </is>
       </c>
       <c r="D32" s="1" t="inlineStr">
         <is>
-          <t>2996402 B 2889  MARCIA CRISTINA CARNIERI MACEDO</t>
+          <t>3120505 C 4438  ANNA BEATRIZ NICOLAU DOS SANTOS</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>714</v>
+        <v>191</v>
       </c>
       <c r="F32" t="n">
-        <v>24.60000000000002</v>
+        <v>4.659999999999997</v>
       </c>
       <c r="G32" t="n">
-        <v>738.6</v>
+        <v>195.66</v>
       </c>
     </row>
     <row r="33">
@@ -3888,13 +4687,13 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>714</v>
+        <v>191</v>
       </c>
       <c r="F33" t="n">
-        <v>24.60000000000002</v>
+        <v>4.659999999999997</v>
       </c>
       <c r="G33" t="n">
-        <v>738.6</v>
+        <v>195.66</v>
       </c>
     </row>
     <row r="34">
@@ -3907,13 +4706,13 @@
       </c>
       <c r="D34" s="1" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>714</v>
+        <v>191</v>
       </c>
       <c r="F34" t="n">
-        <v>24.60000000000002</v>
+        <v>4.659999999999997</v>
       </c>
       <c r="G34" t="n">
-        <v>738.6</v>
+        <v>195.66</v>
       </c>
     </row>
     <row r="35">
@@ -3924,27 +4723,27 @@
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>102 Semestralidade|Contábil: 15687</t>
+          <t>102 Semestralidade|Contábil: 15692</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>B-Ausente</t>
+          <t>C-Ausente</t>
         </is>
       </c>
       <c r="D35" s="1" t="inlineStr">
         <is>
-          <t>3119610 B 1682  LARA DANIELLE SANTOS FERREIRA</t>
+          <t>3120059 C 649  JULIANA SAVASSI VIANNA</t>
         </is>
       </c>
       <c r="E35" t="n">
         <v>1146</v>
       </c>
       <c r="F35" t="n">
-        <v>27.48000000000002</v>
+        <v>28.24000000000001</v>
       </c>
       <c r="G35" t="n">
-        <v>1173.48</v>
+        <v>1174.24</v>
       </c>
     </row>
     <row r="36">
@@ -3953,17 +4752,17 @@
       <c r="C36" s="1" t="n"/>
       <c r="D36" s="1" t="inlineStr">
         <is>
-          <t>3119734 B 4808  CAMILA PRADI BONILHA</t>
+          <t>3120399 C 3426  RAFAELA LUNDGREN THA</t>
         </is>
       </c>
       <c r="E36" t="n">
         <v>1146</v>
       </c>
       <c r="F36" t="n">
-        <v>27.48000000000002</v>
+        <v>28.24000000000001</v>
       </c>
       <c r="G36" t="n">
-        <v>1173.48</v>
+        <v>1174.24</v>
       </c>
     </row>
     <row r="37">
@@ -3979,10 +4778,10 @@
         <v>2292</v>
       </c>
       <c r="F37" t="n">
-        <v>54.96000000000004</v>
+        <v>56.48000000000002</v>
       </c>
       <c r="G37" t="n">
-        <v>2346.96</v>
+        <v>2348.48</v>
       </c>
     </row>
     <row r="38">
@@ -3998,17 +4797,21 @@
         <v>2292</v>
       </c>
       <c r="F38" t="n">
-        <v>54.96000000000004</v>
+        <v>56.48000000000002</v>
       </c>
       <c r="G38" t="n">
-        <v>2346.96</v>
+        <v>2348.48</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n"/>
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>102 Semestralidade|Contábil: 15692</t>
+          <t>106 Mensalidades|Contábil: 15692</t>
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr">
@@ -4018,17 +4821,17 @@
       </c>
       <c r="D39" s="1" t="inlineStr">
         <is>
-          <t>3120101 C 997  FABIO GALLIANO DAROSZ ZEIGELBOIM</t>
+          <t>3120084 C 837  HIRAN FRANCO DO LAGO</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1146</v>
+        <v>955</v>
       </c>
       <c r="F39" t="n">
-        <v>27.48000000000002</v>
+        <v>23.58000000000004</v>
       </c>
       <c r="G39" t="n">
-        <v>1173.48</v>
+        <v>978.58</v>
       </c>
     </row>
     <row r="40">
@@ -4037,431 +4840,419 @@
       <c r="C40" s="1" t="n"/>
       <c r="D40" s="1" t="inlineStr">
         <is>
-          <t>3120545 C 4838  MARIANNE BAUER CASTRO DE CONTESSA</t>
+          <t>Subtotal</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1146</v>
+        <v>955</v>
       </c>
       <c r="F40" t="n">
-        <v>27.48000000000002</v>
+        <v>23.58000000000004</v>
       </c>
       <c r="G40" t="n">
-        <v>1173.48</v>
+        <v>978.58</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n"/>
       <c r="B41" s="1" t="n"/>
-      <c r="C41" s="1" t="n"/>
-      <c r="D41" s="1" t="inlineStr">
+      <c r="C41" s="1" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
+      <c r="D41" s="1" t="inlineStr"/>
       <c r="E41" t="n">
-        <v>2292</v>
+        <v>955</v>
       </c>
       <c r="F41" t="n">
-        <v>54.96000000000004</v>
+        <v>23.58000000000004</v>
       </c>
       <c r="G41" t="n">
-        <v>2346.96</v>
+        <v>978.58</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n"/>
-      <c r="B42" s="1" t="n"/>
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t>106 Mensalidades|Contábil: 15720</t>
+        </is>
+      </c>
       <c r="C42" s="1" t="inlineStr">
         <is>
+          <t>S-Asp.Ausente</t>
+        </is>
+      </c>
+      <c r="D42" s="1" t="inlineStr">
+        <is>
+          <t>3119967 S 4518  TOBIAS DE MACEDO NETO</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>191</v>
+      </c>
+      <c r="F42" t="n">
+        <v>4.659999999999997</v>
+      </c>
+      <c r="G42" t="n">
+        <v>195.66</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="1" t="n"/>
+      <c r="C43" s="1" t="n"/>
+      <c r="D43" s="1" t="inlineStr">
+        <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="D42" s="1" t="inlineStr"/>
-      <c r="E42" t="n">
-        <v>2292</v>
-      </c>
-      <c r="F42" t="n">
-        <v>54.96000000000004</v>
-      </c>
-      <c r="G42" t="n">
-        <v>2346.96</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>0305</t>
-        </is>
-      </c>
-      <c r="B43" s="1" t="inlineStr">
-        <is>
-          <t>305 Escol. De Natacao|Contábil: 16156</t>
-        </is>
-      </c>
-      <c r="C43" s="1" t="inlineStr">
-        <is>
-          <t>B-Presente</t>
-        </is>
-      </c>
-      <c r="D43" s="1" t="inlineStr">
-        <is>
-          <t>3149016 B 6083  PATRICIA LEINER GOMES</t>
-        </is>
-      </c>
       <c r="E43" t="n">
-        <v>1990</v>
+        <v>191</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>4.659999999999997</v>
       </c>
       <c r="G43" t="n">
-        <v>1791</v>
+        <v>195.66</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n"/>
       <c r="B44" s="1" t="n"/>
-      <c r="C44" s="1" t="n"/>
-      <c r="D44" s="1" t="inlineStr">
+      <c r="C44" s="1" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
+      <c r="D44" s="1" t="inlineStr"/>
       <c r="E44" t="n">
-        <v>1990</v>
+        <v>191</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>4.659999999999997</v>
       </c>
       <c r="G44" t="n">
-        <v>1791</v>
+        <v>195.66</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n"/>
-      <c r="B45" s="1" t="n"/>
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>0303</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>303 Escol. De Tenis|Contábil: 16044</t>
+        </is>
+      </c>
       <c r="C45" s="1" t="inlineStr">
         <is>
-          <t>Subtotal</t>
-        </is>
-      </c>
-      <c r="D45" s="1" t="inlineStr"/>
+          <t>B-Presente</t>
+        </is>
+      </c>
+      <c r="D45" s="1" t="inlineStr">
+        <is>
+          <t>3149091 B 3075  GONCALO MARINS FARFUD</t>
+        </is>
+      </c>
       <c r="E45" t="n">
-        <v>1990</v>
+        <v>890</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1791</v>
+        <v>756.5</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>0318</t>
-        </is>
-      </c>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>318 Colonia De Ferias|Contábil: 16525</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
-        <is>
-          <t>C-Presente</t>
-        </is>
-      </c>
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="1" t="n"/>
+      <c r="C46" s="1" t="n"/>
       <c r="D46" s="1" t="inlineStr">
         <is>
-          <t>3063617 C 5736  RENATA KUBRUSLY CRUZ DE GODOY</t>
+          <t>Subtotal</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>50</v>
+        <v>890</v>
       </c>
       <c r="F46" t="n">
-        <v>1.920000000000002</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>51.92</v>
+        <v>756.5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n"/>
       <c r="B47" s="1" t="n"/>
-      <c r="C47" s="1" t="n"/>
-      <c r="D47" s="1" t="inlineStr">
+      <c r="C47" s="1" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
+      <c r="D47" s="1" t="inlineStr"/>
       <c r="E47" t="n">
-        <v>50</v>
+        <v>890</v>
       </c>
       <c r="F47" t="n">
-        <v>1.920000000000002</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>51.92</v>
+        <v>756.5</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n"/>
-      <c r="B48" s="1" t="n"/>
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>0321</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>321 Escol. Jiu-Jitsu|Contábil: 16273</t>
+        </is>
+      </c>
       <c r="C48" s="1" t="inlineStr">
         <is>
+          <t>B-Presente</t>
+        </is>
+      </c>
+      <c r="D48" s="1" t="inlineStr">
+        <is>
+          <t>3150093 B 958  PABLO MANOEL P SOBREIRO</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>890</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="1" t="n"/>
+      <c r="C49" s="1" t="n"/>
+      <c r="D49" s="1" t="inlineStr">
+        <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="D48" s="1" t="inlineStr"/>
-      <c r="E48" t="n">
-        <v>50</v>
-      </c>
-      <c r="F48" t="n">
-        <v>1.920000000000002</v>
-      </c>
-      <c r="G48" t="n">
-        <v>51.92</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>0329</t>
-        </is>
-      </c>
-      <c r="B49" s="1" t="inlineStr">
-        <is>
-          <t>329 Pilates - Studio De Pilates|Contábil: 4356</t>
-        </is>
-      </c>
-      <c r="C49" s="1" t="inlineStr">
-        <is>
-          <t>C-Presente</t>
-        </is>
-      </c>
-      <c r="D49" s="1" t="inlineStr">
-        <is>
-          <t>3147120 C 5736  RENATA KUBRUSLY CRUZ DE GODOY</t>
-        </is>
-      </c>
       <c r="E49" t="n">
-        <v>208</v>
+        <v>890</v>
       </c>
       <c r="F49" t="n">
-        <v>4.719999999999999</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>212.72</v>
+        <v>801</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n"/>
       <c r="B50" s="1" t="n"/>
-      <c r="C50" s="1" t="n"/>
-      <c r="D50" s="1" t="inlineStr">
+      <c r="C50" s="1" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
+      <c r="D50" s="1" t="inlineStr"/>
       <c r="E50" t="n">
-        <v>208</v>
+        <v>890</v>
       </c>
       <c r="F50" t="n">
-        <v>4.719999999999999</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>212.72</v>
+        <v>801</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n"/>
-      <c r="B51" s="1" t="n"/>
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>0330</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>330 Swasthya Yoga - Kjuliane|Contábil: 4265</t>
+        </is>
+      </c>
       <c r="C51" s="1" t="inlineStr">
         <is>
+          <t>B-Presente</t>
+        </is>
+      </c>
+      <c r="D51" s="1" t="inlineStr">
+        <is>
+          <t>3145915 B 4213  MARIA ALICE PINHEIRO L ANTONIETTO</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>172</v>
+      </c>
+      <c r="F51" t="n">
+        <v>4.340000000000003</v>
+      </c>
+      <c r="G51" t="n">
+        <v>176.34</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n"/>
+      <c r="B52" s="1" t="n"/>
+      <c r="C52" s="1" t="n"/>
+      <c r="D52" s="1" t="inlineStr">
+        <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="D51" s="1" t="inlineStr"/>
-      <c r="E51" t="n">
-        <v>208</v>
-      </c>
-      <c r="F51" t="n">
-        <v>4.719999999999999</v>
-      </c>
-      <c r="G51" t="n">
-        <v>212.72</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>0601</t>
-        </is>
-      </c>
-      <c r="B52" s="1" t="inlineStr">
-        <is>
-          <t>601 Sauna Feminina|Contábil: 747</t>
-        </is>
-      </c>
-      <c r="C52" s="1" t="inlineStr">
-        <is>
-          <t>C-Presente</t>
-        </is>
-      </c>
-      <c r="D52" s="1" t="inlineStr">
-        <is>
-          <t>3139832 C 6513  FABIANA FERREIRA PESSOA</t>
-        </is>
-      </c>
       <c r="E52" t="n">
-        <v>7</v>
+        <v>172</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1399999999999997</v>
+        <v>4.340000000000003</v>
       </c>
       <c r="G52" t="n">
-        <v>7.14</v>
+        <v>176.34</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n"/>
       <c r="B53" s="1" t="n"/>
-      <c r="C53" s="1" t="n"/>
+      <c r="C53" s="1" t="inlineStr">
+        <is>
+          <t>C-Presente</t>
+        </is>
+      </c>
       <c r="D53" s="1" t="inlineStr">
         <is>
-          <t>Subtotal</t>
+          <t>3145935 C 4452  MARIANA APPEL ANDRADE</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1399999999999997</v>
+        <v>2.140000000000001</v>
       </c>
       <c r="G53" t="n">
-        <v>7.14</v>
+        <v>88.14</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n"/>
       <c r="B54" s="1" t="n"/>
-      <c r="C54" s="1" t="inlineStr">
+      <c r="C54" s="1" t="n"/>
+      <c r="D54" s="1" t="inlineStr">
+        <is>
+          <t>3145936 C 4452  MARIANA APPEL ANDRADE</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>86</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2.140000000000001</v>
+      </c>
+      <c r="G54" t="n">
+        <v>88.14</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="1" t="n"/>
+      <c r="C55" s="1" t="n"/>
+      <c r="D55" s="1" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="D54" s="1" t="inlineStr"/>
-      <c r="E54" t="n">
-        <v>7</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0.1399999999999997</v>
-      </c>
-      <c r="G54" t="n">
-        <v>7.14</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>0703</t>
-        </is>
-      </c>
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>703 Aluguel Arm. Do Golfe - Masc|Contábil: 15241</t>
-        </is>
-      </c>
-      <c r="C55" s="1" t="inlineStr">
-        <is>
-          <t>B-Presente</t>
-        </is>
-      </c>
-      <c r="D55" s="1" t="inlineStr">
-        <is>
-          <t>3148536 B 4726  MARCOS MATTIOLI</t>
-        </is>
-      </c>
       <c r="E55" t="n">
-        <v>764</v>
+        <v>172</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>4.280000000000001</v>
       </c>
       <c r="G55" t="n">
-        <v>764</v>
+        <v>176.28</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n"/>
       <c r="B56" s="1" t="n"/>
-      <c r="C56" s="1" t="n"/>
-      <c r="D56" s="1" t="inlineStr">
+      <c r="C56" s="1" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
+      <c r="D56" s="1" t="inlineStr"/>
       <c r="E56" t="n">
-        <v>764</v>
+        <v>344</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>8.620000000000005</v>
       </c>
       <c r="G56" t="n">
-        <v>764</v>
+        <v>352.62</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n"/>
-      <c r="B57" s="1" t="n"/>
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>0336</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>336 Personal Trainer Sbsa|Contábil: 16301</t>
+        </is>
+      </c>
       <c r="C57" s="1" t="inlineStr">
         <is>
-          <t>Subtotal</t>
-        </is>
-      </c>
-      <c r="D57" s="1" t="inlineStr"/>
+          <t>B-Presente</t>
+        </is>
+      </c>
+      <c r="D57" s="1" t="inlineStr">
+        <is>
+          <t>3048111 B 1848  MARCOS CHESI DE OLIVEIRA JUNIOR</t>
+        </is>
+      </c>
       <c r="E57" t="n">
-        <v>764</v>
+        <v>584</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>26.30999999999995</v>
       </c>
       <c r="G57" t="n">
-        <v>764</v>
+        <v>610.3099999999999</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>1104</t>
-        </is>
-      </c>
-      <c r="B58" s="1" t="inlineStr">
-        <is>
-          <t>1104 Taxa Material Esportivo Golfe|Contábil: 40921</t>
-        </is>
-      </c>
-      <c r="C58" s="1" t="inlineStr">
-        <is>
-          <t>B-Presente</t>
-        </is>
-      </c>
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="1" t="n"/>
+      <c r="C58" s="1" t="n"/>
       <c r="D58" s="1" t="inlineStr">
         <is>
-          <t>3146781 B 4726  MARCOS MATTIOLI</t>
+          <t>3149215 B 4737  EDUARDO RODRIGO PUPPI MORO</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>188.1</v>
+        <v>152</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>188.1</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59">
@@ -4474,13 +5265,13 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>188.1</v>
+        <v>736</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>26.30999999999995</v>
       </c>
       <c r="G59" t="n">
-        <v>188.1</v>
+        <v>762.3099999999999</v>
       </c>
     </row>
     <row r="60">
@@ -4488,49 +5279,41 @@
       <c r="B60" s="1" t="n"/>
       <c r="C60" s="1" t="inlineStr">
         <is>
-          <t>Subtotal</t>
-        </is>
-      </c>
-      <c r="D60" s="1" t="inlineStr"/>
+          <t>C-Presente</t>
+        </is>
+      </c>
+      <c r="D60" s="1" t="inlineStr">
+        <is>
+          <t>3149149 C 6756  AUGUSTO ROCHA PINTAL</t>
+        </is>
+      </c>
       <c r="E60" t="n">
-        <v>188.1</v>
+        <v>198</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>188.1</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>1907</t>
-        </is>
-      </c>
-      <c r="B61" s="1" t="inlineStr">
-        <is>
-          <t>1907 Taxa Federacao De Golfe|Contábil: 41301</t>
-        </is>
-      </c>
-      <c r="C61" s="1" t="inlineStr">
-        <is>
-          <t>B-Presente</t>
-        </is>
-      </c>
+      <c r="A61" s="1" t="n"/>
+      <c r="B61" s="1" t="n"/>
+      <c r="C61" s="1" t="n"/>
       <c r="D61" s="1" t="inlineStr">
         <is>
-          <t>3148029 B 4726  MARCOS MATTIOLI</t>
+          <t>3149211 C 1219  MANOELA BASSANI CASTRO</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>80</v>
+        <v>228</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>80</v>
+        <v>228</v>
       </c>
     </row>
     <row r="62">
@@ -4543,13 +5326,13 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>80</v>
+        <v>426</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>80</v>
+        <v>426</v>
       </c>
     </row>
     <row r="63">
@@ -4562,44 +5345,44 @@
       </c>
       <c r="D63" s="1" t="inlineStr"/>
       <c r="E63" t="n">
-        <v>80</v>
+        <v>1162</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>26.30999999999995</v>
       </c>
       <c r="G63" t="n">
-        <v>80</v>
+        <v>1188.31</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>1909</t>
+          <t>0443</t>
         </is>
       </c>
       <c r="B64" s="1" t="inlineStr">
         <is>
-          <t>1909 Clubinho (Pacote)|Contábil: 28650</t>
+          <t>443 Curso De Artes|Contábil: 21964</t>
         </is>
       </c>
       <c r="C64" s="1" t="inlineStr">
         <is>
-          <t>C-Presente</t>
+          <t>B-Presente</t>
         </is>
       </c>
       <c r="D64" s="1" t="inlineStr">
         <is>
-          <t>3147304 C 2040  THOMAZ CARVALHO COSTA</t>
+          <t>3149204 B 4271  LETICIA CRISTINA DALLEDONE SIQUEIRA REIN</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>55</v>
+        <v>1657</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>55</v>
+        <v>1491.3</v>
       </c>
     </row>
     <row r="65">
@@ -4608,229 +5391,221 @@
       <c r="C65" s="1" t="n"/>
       <c r="D65" s="1" t="inlineStr">
         <is>
-          <t>3148111 C 7686  DAVID JUNQUEIRA DE C KUNZE</t>
+          <t>Subtotal</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>22</v>
+        <v>1657</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>22</v>
+        <v>1491.3</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n"/>
       <c r="B66" s="1" t="n"/>
-      <c r="C66" s="1" t="n"/>
+      <c r="C66" s="1" t="inlineStr">
+        <is>
+          <t>C-Presente</t>
+        </is>
+      </c>
       <c r="D66" s="1" t="inlineStr">
         <is>
-          <t>Subtotal</t>
+          <t>3149243 C 1967  LETICIA PEREIRA DA COSTA GOIS NOGUEIRA</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>77</v>
+        <v>1779</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>77</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n"/>
       <c r="B67" s="1" t="n"/>
-      <c r="C67" s="1" t="inlineStr">
+      <c r="C67" s="1" t="n"/>
+      <c r="D67" s="1" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="D67" s="1" t="inlineStr"/>
       <c r="E67" t="n">
-        <v>77</v>
+        <v>1779</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>77</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>3024</t>
-        </is>
-      </c>
-      <c r="B68" s="1" t="inlineStr">
-        <is>
-          <t>3024 Torneio De Basquete|Contábil: 33689</t>
-        </is>
-      </c>
+      <c r="A68" s="1" t="n"/>
+      <c r="B68" s="1" t="n"/>
       <c r="C68" s="1" t="inlineStr">
         <is>
+          <t>Subtotal</t>
+        </is>
+      </c>
+      <c r="D68" s="1" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>3436</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>3270.3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>0463</t>
+        </is>
+      </c>
+      <c r="B69" s="1" t="inlineStr">
+        <is>
+          <t>463 Devolução Curso De Artes|Contábil: 747</t>
+        </is>
+      </c>
+      <c r="C69" s="1" t="inlineStr">
+        <is>
           <t>C-Presente</t>
         </is>
       </c>
-      <c r="D68" s="1" t="inlineStr">
-        <is>
-          <t>3045297 C 5151  JOSE RICARDO DE MOURA BRITO MURICY</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
-        <v>40</v>
-      </c>
-      <c r="F68" t="n">
-        <v>1.630000000000003</v>
-      </c>
-      <c r="G68" t="n">
-        <v>41.63</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n"/>
-      <c r="B69" s="1" t="n"/>
-      <c r="C69" s="1" t="n"/>
       <c r="D69" s="1" t="inlineStr">
         <is>
-          <t>Subtotal</t>
+          <t>3149242 C 1967  LETICIA PEREIRA DA COSTA GOIS NOGUEIRA</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>40</v>
+        <v>-1657</v>
       </c>
       <c r="F69" t="n">
-        <v>1.630000000000003</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>41.63</v>
+        <v>-1657</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n"/>
       <c r="B70" s="1" t="n"/>
-      <c r="C70" s="1" t="inlineStr">
+      <c r="C70" s="1" t="n"/>
+      <c r="D70" s="1" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="D70" s="1" t="inlineStr"/>
       <c r="E70" t="n">
-        <v>40</v>
+        <v>-1657</v>
       </c>
       <c r="F70" t="n">
-        <v>1.630000000000003</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>41.63</v>
+        <v>-1657</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>3548</t>
-        </is>
-      </c>
-      <c r="B71" s="1" t="inlineStr">
-        <is>
-          <t>3548 Hatha Yoga-Viviana Haluch|Contábil: 41981</t>
-        </is>
-      </c>
+      <c r="A71" s="1" t="n"/>
+      <c r="B71" s="1" t="n"/>
       <c r="C71" s="1" t="inlineStr">
         <is>
+          <t>Subtotal</t>
+        </is>
+      </c>
+      <c r="D71" s="1" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>-1657</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-1657</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>1083</t>
+        </is>
+      </c>
+      <c r="B72" s="1" t="inlineStr">
+        <is>
+          <t>1083 Aula De Beach Tennis - Marcelo Stoberl|Contábil: 40552</t>
+        </is>
+      </c>
+      <c r="C72" s="1" t="inlineStr">
+        <is>
           <t>B-Presente</t>
         </is>
       </c>
-      <c r="D71" s="1" t="inlineStr">
-        <is>
-          <t>3145910 B 5823  CRISTIANO KLAS</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>86</v>
-      </c>
-      <c r="F71" t="n">
-        <v>2.079999999999998</v>
-      </c>
-      <c r="G71" t="n">
-        <v>88.08</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n"/>
-      <c r="B72" s="1" t="n"/>
-      <c r="C72" s="1" t="n"/>
       <c r="D72" s="1" t="inlineStr">
         <is>
-          <t>Subtotal</t>
+          <t>3150030 B 1792  HENRIQUE LEAL VIANNA</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>86</v>
+        <v>46.5</v>
       </c>
       <c r="F72" t="n">
-        <v>2.079999999999998</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>88.08</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n"/>
       <c r="B73" s="1" t="n"/>
-      <c r="C73" s="1" t="inlineStr">
+      <c r="C73" s="1" t="n"/>
+      <c r="D73" s="1" t="inlineStr">
+        <is>
+          <t>3150031 B 1792  HENRIQUE LEAL VIANNA</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n"/>
+      <c r="B74" s="1" t="n"/>
+      <c r="C74" s="1" t="n"/>
+      <c r="D74" s="1" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="D73" s="1" t="inlineStr"/>
-      <c r="E73" t="n">
-        <v>86</v>
-      </c>
-      <c r="F73" t="n">
-        <v>2.079999999999998</v>
-      </c>
-      <c r="G73" t="n">
-        <v>88.08</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>8888</v>
-      </c>
-      <c r="B74" s="1" t="inlineStr">
-        <is>
-          <t>Operações|Contábil: 8888</t>
-        </is>
-      </c>
-      <c r="C74" s="1" t="inlineStr">
-        <is>
-          <t>Subtotal</t>
-        </is>
-      </c>
-      <c r="D74" s="1" t="inlineStr"/>
       <c r="E74" t="n">
-        <v>-32.4</v>
+        <v>93</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>-32.4</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>9999</v>
-      </c>
-      <c r="B75" s="1" t="inlineStr">
-        <is>
-          <t>Taxa|Contábil: 9999</t>
-        </is>
-      </c>
+      <c r="A75" s="1" t="n"/>
+      <c r="B75" s="1" t="n"/>
       <c r="C75" s="1" t="inlineStr">
         <is>
           <t>Subtotal</t>
@@ -4838,81 +5613,463 @@
       </c>
       <c r="D75" s="1" t="inlineStr"/>
       <c r="E75" t="n">
-        <v>-0.29</v>
+        <v>93</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.29</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
+          <t>1504</t>
+        </is>
+      </c>
+      <c r="B76" s="1" t="inlineStr">
+        <is>
+          <t>1504 Taxa Despesa Cobranca|Contábil: 15645</t>
+        </is>
+      </c>
+      <c r="C76" s="1" t="inlineStr">
+        <is>
+          <t>B-Presente</t>
+        </is>
+      </c>
+      <c r="D76" s="1" t="inlineStr">
+        <is>
+          <t>3148810 B 2555  TATIANA ALMEIDA BLITZKOW MARAN</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>250</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n"/>
+      <c r="B77" s="1" t="n"/>
+      <c r="C77" s="1" t="n"/>
+      <c r="D77" s="1" t="inlineStr">
+        <is>
+          <t>Subtotal</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>250</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n"/>
+      <c r="B78" s="1" t="n"/>
+      <c r="C78" s="1" t="inlineStr">
+        <is>
+          <t>Subtotal</t>
+        </is>
+      </c>
+      <c r="D78" s="1" t="inlineStr"/>
+      <c r="E78" t="n">
+        <v>250</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>1908</t>
+        </is>
+      </c>
+      <c r="B79" s="1" t="inlineStr">
+        <is>
+          <t>1908 Clubinho|Contábil: 28650</t>
+        </is>
+      </c>
+      <c r="C79" s="1" t="inlineStr">
+        <is>
+          <t>C-Ausente</t>
+        </is>
+      </c>
+      <c r="D79" s="1" t="inlineStr">
+        <is>
+          <t>3146070 C 608  FERNANDA TRAMUJAS AZEVEDO BUENO DO NASCIMENTO</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>5</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.09999999999999964</v>
+      </c>
+      <c r="G79" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n"/>
+      <c r="B80" s="1" t="n"/>
+      <c r="C80" s="1" t="n"/>
+      <c r="D80" s="1" t="inlineStr">
+        <is>
+          <t>Subtotal</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>5</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.09999999999999964</v>
+      </c>
+      <c r="G80" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n"/>
+      <c r="B81" s="1" t="n"/>
+      <c r="C81" s="1" t="inlineStr">
+        <is>
+          <t>Subtotal</t>
+        </is>
+      </c>
+      <c r="D81" s="1" t="inlineStr"/>
+      <c r="E81" t="n">
+        <v>5</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.09999999999999964</v>
+      </c>
+      <c r="G81" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>1909</t>
+        </is>
+      </c>
+      <c r="B82" s="1" t="inlineStr">
+        <is>
+          <t>1909 Clubinho (Pacote)|Contábil: 28650</t>
+        </is>
+      </c>
+      <c r="C82" s="1" t="inlineStr">
+        <is>
+          <t>B-Presente</t>
+        </is>
+      </c>
+      <c r="D82" s="1" t="inlineStr">
+        <is>
+          <t>3141642 B 1272  GABRIELE DE MACEDO PINTO</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>20</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n"/>
+      <c r="B83" s="1" t="n"/>
+      <c r="C83" s="1" t="n"/>
+      <c r="D83" s="1" t="inlineStr">
+        <is>
+          <t>3141643 B 1272  GABRIELE DE MACEDO PINTO</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>18</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n"/>
+      <c r="B84" s="1" t="n"/>
+      <c r="C84" s="1" t="n"/>
+      <c r="D84" s="1" t="inlineStr">
+        <is>
+          <t>Subtotal</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>38</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n"/>
+      <c r="B85" s="1" t="n"/>
+      <c r="C85" s="1" t="inlineStr">
+        <is>
+          <t>C-Presente</t>
+        </is>
+      </c>
+      <c r="D85" s="1" t="inlineStr">
+        <is>
+          <t>3149041 C 2114  MARCEL BENTO AMARAL</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>220</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n"/>
+      <c r="B86" s="1" t="n"/>
+      <c r="C86" s="1" t="n"/>
+      <c r="D86" s="1" t="inlineStr">
+        <is>
+          <t>3149065 C 2387  THIAGO CAMARGO DUSZCZAK</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>99</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n"/>
+      <c r="B87" s="1" t="n"/>
+      <c r="C87" s="1" t="n"/>
+      <c r="D87" s="1" t="inlineStr">
+        <is>
+          <t>3149207 C 6756  AUGUSTO ROCHA PINTAL</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>220</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n"/>
+      <c r="B88" s="1" t="n"/>
+      <c r="C88" s="1" t="n"/>
+      <c r="D88" s="1" t="inlineStr">
+        <is>
+          <t>3150058 C 6758  BRUNO LUIZ VIANNA CLEMENTI</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>55</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n"/>
+      <c r="B89" s="1" t="n"/>
+      <c r="C89" s="1" t="n"/>
+      <c r="D89" s="1" t="inlineStr">
+        <is>
+          <t>Subtotal</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>594</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n"/>
+      <c r="B90" s="1" t="n"/>
+      <c r="C90" s="1" t="inlineStr">
+        <is>
+          <t>Subtotal</t>
+        </is>
+      </c>
+      <c r="D90" s="1" t="inlineStr"/>
+      <c r="E90" t="n">
+        <v>632</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>8888</v>
+      </c>
+      <c r="B91" s="1" t="inlineStr">
+        <is>
+          <t>Operações|Contábil: 8888</t>
+        </is>
+      </c>
+      <c r="C91" s="1" t="inlineStr">
+        <is>
+          <t>Subtotal</t>
+        </is>
+      </c>
+      <c r="D91" s="1" t="inlineStr"/>
+      <c r="E91" t="n">
+        <v>-42.3</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-42.3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>9999</v>
+      </c>
+      <c r="B92" s="1" t="inlineStr">
+        <is>
+          <t>Taxa|Contábil: 9999</t>
+        </is>
+      </c>
+      <c r="C92" s="1" t="inlineStr">
+        <is>
+          <t>Subtotal</t>
+        </is>
+      </c>
+      <c r="D92" s="1" t="inlineStr"/>
+      <c r="E92" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-0.29</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
           <t>Total Geral</t>
         </is>
       </c>
-      <c r="B76" s="1" t="inlineStr"/>
-      <c r="C76" s="1" t="inlineStr"/>
-      <c r="D76" s="1" t="inlineStr"/>
-      <c r="E76" t="n">
-        <v>21811.01</v>
-      </c>
-      <c r="F76" t="n">
-        <v>600.6199999999998</v>
-      </c>
-      <c r="G76" t="n">
-        <v>22212.63</v>
+      <c r="B93" s="1" t="inlineStr"/>
+      <c r="C93" s="1" t="inlineStr"/>
+      <c r="D93" s="1" t="inlineStr"/>
+      <c r="E93" t="n">
+        <v>26296.41</v>
+      </c>
+      <c r="F93" t="n">
+        <v>632.4799999999996</v>
+      </c>
+      <c r="G93" t="n">
+        <v>26540.69000000001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B2:B14"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="A52:A54"/>
+  <mergeCells count="52">
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="B57:B63"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="B82:B90"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="C53:C55"/>
     <mergeCell ref="A2:A34"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="A64:A68"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C11:C27"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="A82:A90"/>
+    <mergeCell ref="C2:C7"/>
     <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B42:B44"/>
     <mergeCell ref="C35:C37"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="C15:C25"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C85:C89"/>
+    <mergeCell ref="B11:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B2:B10"/>
     <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B15:B26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/processed_output.xlsx
+++ b/processed_output.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="24.01" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="30.01" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Relatório" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,12 +545,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">C 6294 </t>
+          <t xml:space="preserve">C 4737 </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FERNANDA DE CARVALHO E SILVA TREVISAN</t>
+          <t>MIRELLA BUTTURA CHRUSCIAK</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -573,20 +573,20 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3112862</t>
+          <t>3109246</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>764</v>
       </c>
       <c r="I2" t="n">
-        <v>782.78</v>
+        <v>784.28</v>
       </c>
       <c r="J2" t="n">
-        <v>782.78</v>
+        <v>784.28</v>
       </c>
       <c r="K2" t="n">
-        <v>18.77999999999997</v>
+        <v>20.27999999999997</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>01/24/2025 14:57:00</t>
+          <t>01/30/2025 09:01:24</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -612,21 +612,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">C 2023 </t>
+          <t xml:space="preserve">R 2779 </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ROMULO BUNESE ROCHA</t>
+          <t>JOAO ABRAO FILHO</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C-Presente</t>
+          <t>R-Barao Pagante</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>15549</v>
+        <v>15533</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -640,20 +640,20 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2955394</t>
+          <t>3130438</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>714</v>
+        <v>382</v>
       </c>
       <c r="I3" t="n">
-        <v>739.5599999999999</v>
+        <v>382</v>
       </c>
       <c r="J3" t="n">
-        <v>739.5599999999999</v>
+        <v>382</v>
       </c>
       <c r="K3" t="n">
-        <v>25.55999999999995</v>
+        <v>0</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -662,12 +662,12 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>01/26/2025 18:06:10</t>
+          <t>01/30/2025 16:44:53</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>12/10/2024 00:00:00</t>
+          <t>02/10/2025 00:00:00</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -679,12 +679,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C 2023 </t>
+          <t xml:space="preserve">C 978 </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ROMULO BUNESE ROCHA</t>
+          <t>ANA LUISA CARNEIRO RIBEIRO</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -707,20 +707,20 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3100147</t>
+          <t>2950969</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>764</v>
+        <v>714</v>
       </c>
       <c r="I4" t="n">
-        <v>783.28</v>
+        <v>740.52</v>
       </c>
       <c r="J4" t="n">
-        <v>783.28</v>
+        <v>740.52</v>
       </c>
       <c r="K4" t="n">
-        <v>19.27999999999997</v>
+        <v>26.51999999999998</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -729,12 +729,12 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>01/26/2025 18:05:13</t>
+          <t>01/30/2025 13:24:25</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>01/10/2025 00:00:00</t>
+          <t>12/10/2024 00:00:00</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -746,12 +746,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">C 2115 </t>
+          <t xml:space="preserve">C 978 </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CARLOS AUGUSTO BEDUSCHI</t>
+          <t>ANA LUISA CARNEIRO RIBEIRO</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -774,20 +774,20 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3100521</t>
+          <t>3096068</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>764</v>
       </c>
       <c r="I5" t="n">
-        <v>782.78</v>
+        <v>784.28</v>
       </c>
       <c r="J5" t="n">
-        <v>782.78</v>
+        <v>784.28</v>
       </c>
       <c r="K5" t="n">
-        <v>18.77999999999997</v>
+        <v>20.27999999999997</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -796,7 +796,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>01/24/2025 11:19:57</t>
+          <t>01/30/2025 13:24:25</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -813,12 +813,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">C 2284 </t>
+          <t xml:space="preserve">C 885 </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ADRIANO AGUIAR SOCHER</t>
+          <t>ANDRE GUSTAVO M. TOLENTINO</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -841,20 +841,20 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2956414</t>
+          <t>2950524</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>714</v>
       </c>
       <c r="I6" t="n">
-        <v>746.04</v>
+        <v>740.52</v>
       </c>
       <c r="J6" t="n">
-        <v>746.04</v>
+        <v>740.52</v>
       </c>
       <c r="K6" t="n">
-        <v>32.03999999999996</v>
+        <v>26.51999999999998</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -863,12 +863,12 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>01/24/2025 06:10:20</t>
+          <t>01/30/2025 13:14:15</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>11/11/2024 00:00:00</t>
+          <t>12/10/2024 00:00:00</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -880,21 +880,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">C 1500 </t>
+          <t xml:space="preserve">R 4382 </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LEONARDO VECCHI CONTADOR</t>
+          <t>HILTON DE PAULA X MARCHIORO</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C-Presente</t>
+          <t>R-Barao Pagante</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>15549</v>
+        <v>15533</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -908,20 +908,20 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3098040</t>
+          <t>3135860</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>764</v>
+        <v>382</v>
       </c>
       <c r="I7" t="n">
-        <v>782.78</v>
+        <v>392.24</v>
       </c>
       <c r="J7" t="n">
-        <v>782.78</v>
+        <v>392.24</v>
       </c>
       <c r="K7" t="n">
-        <v>18.77999999999997</v>
+        <v>10.24000000000001</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>01/24/2025 17:18:58</t>
+          <t>01/30/2025 22:41:11</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -947,21 +947,21 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">C 961 </t>
+          <t xml:space="preserve">S 1168 </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FLAVIA GOMES STECHMAN</t>
+          <t>SOPHIA LAURA STEC LIBLIK</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C-Presente</t>
+          <t>S-Aspirante</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>15549</v>
+        <v>15554</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -975,20 +975,20 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3096006</t>
+          <t>3126591</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>764</v>
+        <v>382</v>
       </c>
       <c r="I8" t="n">
-        <v>764</v>
+        <v>392.24</v>
       </c>
       <c r="J8" t="n">
-        <v>764</v>
+        <v>392.24</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10.24000000000001</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -997,12 +997,12 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>01/24/2025 08:40:36</t>
+          <t>01/30/2025 05:54:35</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>02/10/2025 00:00:00</t>
+          <t>01/10/2025 00:00:00</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1014,12 +1014,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">C 1053 </t>
+          <t xml:space="preserve">C 7823 </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LUISA CORREA LOBO</t>
+          <t>LUCIANA CARNEIRO DE LARA DE MACEDO</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1042,20 +1042,20 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3096362</t>
+          <t>3117082</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>764</v>
       </c>
       <c r="I9" t="n">
-        <v>783.28</v>
+        <v>764</v>
       </c>
       <c r="J9" t="n">
-        <v>783.28</v>
+        <v>764</v>
       </c>
       <c r="K9" t="n">
-        <v>19.27999999999997</v>
+        <v>0</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1064,12 +1064,12 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>01/26/2025 20:52:52</t>
+          <t>01/30/2025 16:17:47</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>01/10/2025 00:00:00</t>
+          <t>02/10/2025 00:00:00</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1081,12 +1081,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">C 2766 </t>
+          <t xml:space="preserve">C 7521 </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MATHEUS ARZUA CASAGRANDE</t>
+          <t>LEO FERNANDO DA S DITZEL FILHO</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1109,20 +1109,20 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3102726</t>
+          <t>2972833</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>764</v>
+        <v>714</v>
       </c>
       <c r="I10" t="n">
-        <v>764</v>
+        <v>740.52</v>
       </c>
       <c r="J10" t="n">
-        <v>764</v>
+        <v>740.52</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>26.51999999999998</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -1131,12 +1131,12 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>01/24/2025 08:14:52</t>
+          <t>01/30/2025 08:47:33</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>02/10/2025 00:00:00</t>
+          <t>12/10/2024 00:00:00</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1148,21 +1148,21 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">B 617 </t>
+          <t xml:space="preserve">C 7521 </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>JULIANA MARCELA NOVAKOWSKI</t>
+          <t>LEO FERNANDO DA S DITZEL FILHO</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>B-Presente</t>
+          <t>C-Presente</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>15533</v>
+        <v>15549</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1176,20 +1176,20 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3066811</t>
+          <t>3116157</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>764</v>
       </c>
       <c r="I11" t="n">
-        <v>783.03</v>
+        <v>784.28</v>
       </c>
       <c r="J11" t="n">
-        <v>783.03</v>
+        <v>784.28</v>
       </c>
       <c r="K11" t="n">
-        <v>19.02999999999997</v>
+        <v>20.27999999999997</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>01/25/2025 20:46:21</t>
+          <t>01/30/2025 08:47:33</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1215,21 +1215,21 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">C 2913 </t>
+          <t xml:space="preserve">S 493 </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FERNANDO BUFREM</t>
+          <t>LAURA ANDRZEJEWSKI PAMPUCH</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C-Presente</t>
+          <t>S-Aspirante</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>15549</v>
+        <v>15554</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1243,20 +1243,20 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2958582</t>
+          <t>3123498</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>714</v>
+        <v>382</v>
       </c>
       <c r="I12" t="n">
-        <v>746.28</v>
+        <v>392.24</v>
       </c>
       <c r="J12" t="n">
-        <v>746.28</v>
+        <v>392.24</v>
       </c>
       <c r="K12" t="n">
-        <v>32.27999999999997</v>
+        <v>10.24000000000001</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1265,12 +1265,12 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>01/24/2025 13:32:19</t>
+          <t>01/30/2025 11:30:57</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>11/10/2024 00:00:00</t>
+          <t>01/10/2025 00:00:00</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1282,12 +1282,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">C 3240 </t>
+          <t xml:space="preserve">C 7245 </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SIBELLE PEREIRA DE SOUZA</t>
+          <t>BIANCA ALMEIDA NATAL FAUST</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1310,20 +1310,20 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2959683</t>
+          <t>2971889</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>714</v>
       </c>
       <c r="I13" t="n">
-        <v>746.52</v>
+        <v>740.52</v>
       </c>
       <c r="J13" t="n">
-        <v>746.52</v>
+        <v>740.52</v>
       </c>
       <c r="K13" t="n">
-        <v>32.51999999999998</v>
+        <v>26.51999999999998</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1332,12 +1332,12 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>01/25/2025 09:10:38</t>
+          <t>01/30/2025 09:19:31</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>11/10/2024 00:00:00</t>
+          <t>12/10/2024 00:00:00</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1349,21 +1349,21 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">C 2023 </t>
+          <t xml:space="preserve">R 2854 </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ROMULO BUNESE ROCHA</t>
+          <t>MARCOS SLAVIERO</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C-Presente</t>
+          <t>R-Barao Pagante</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>15549</v>
+        <v>15533</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1377,20 +1377,20 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2955393</t>
+          <t>3130659</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>714</v>
+        <v>382</v>
       </c>
       <c r="I14" t="n">
-        <v>746.76</v>
+        <v>392.24</v>
       </c>
       <c r="J14" t="n">
-        <v>746.76</v>
+        <v>392.24</v>
       </c>
       <c r="K14" t="n">
-        <v>32.75999999999999</v>
+        <v>10.24000000000001</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1399,12 +1399,12 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>01/26/2025 18:04:15</t>
+          <t>01/30/2025 07:52:10</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>11/10/2024 00:00:00</t>
+          <t>01/10/2025 00:00:00</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -1416,12 +1416,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">C 3276 </t>
+          <t xml:space="preserve">C 3527 </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>VANIA MARIAN GUERINO FARINHA</t>
+          <t>RICARDO TASSI FILHO</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1444,20 +1444,20 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>3104373</t>
+          <t>3105158</t>
         </is>
       </c>
       <c r="H15" t="n">
         <v>764</v>
       </c>
       <c r="I15" t="n">
-        <v>782.78</v>
+        <v>764</v>
       </c>
       <c r="J15" t="n">
-        <v>782.78</v>
+        <v>764</v>
       </c>
       <c r="K15" t="n">
-        <v>18.77999999999997</v>
+        <v>0</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1466,12 +1466,12 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>01/24/2025 10:55:33</t>
+          <t>01/30/2025 10:41:17</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>01/10/2025 00:00:00</t>
+          <t>02/10/2025 00:00:00</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -1483,17 +1483,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">B 3426 </t>
+          <t xml:space="preserve">R 4382 </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MAURA CRISTHIANE MARCONATTO VECCHI CONTADOR</t>
+          <t>HILTON DE PAULA X MARCHIORO</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>B-Presente</t>
+          <t>R-Barao Pagante</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -1511,20 +1511,20 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>3078523</t>
+          <t>3135861</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>764</v>
+        <v>382</v>
       </c>
       <c r="I16" t="n">
-        <v>782.78</v>
+        <v>382</v>
       </c>
       <c r="J16" t="n">
-        <v>782.78</v>
+        <v>382</v>
       </c>
       <c r="K16" t="n">
-        <v>18.77999999999997</v>
+        <v>0</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1533,12 +1533,12 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>01/24/2025 17:23:27</t>
+          <t>01/30/2025 22:41:11</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>01/10/2025 00:00:00</t>
+          <t>02/10/2025 00:00:00</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -1550,21 +1550,21 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">C 3293 </t>
+          <t xml:space="preserve">B 4218 </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MARIANA OLIVA</t>
+          <t>BRUNA TROMBINI PEREZ BERNAL</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C-Presente</t>
+          <t>B-Presente</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>15549</v>
+        <v>15533</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1578,20 +1578,20 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>3104415</t>
+          <t>3081757</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>764</v>
       </c>
       <c r="I17" t="n">
-        <v>782.78</v>
+        <v>784.28</v>
       </c>
       <c r="J17" t="n">
-        <v>782.78</v>
+        <v>784.28</v>
       </c>
       <c r="K17" t="n">
-        <v>18.77999999999997</v>
+        <v>20.27999999999997</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>01/24/2025 14:48:15</t>
+          <t>01/30/2025 17:19:59</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1617,21 +1617,21 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">B 2889 </t>
+          <t xml:space="preserve">B 2217 </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MARCIA CRISTINA CARNIERI MACEDO</t>
+          <t>ANDRE SLAVIERO ABRAO</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>B-Viuvo (A) Pg. 100%</t>
+          <t>B-Presente</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15561</v>
+        <v>15533</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1645,20 +1645,20 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>3139168</t>
+          <t>3073388</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>764</v>
       </c>
       <c r="I18" t="n">
-        <v>782.78</v>
+        <v>784.28</v>
       </c>
       <c r="J18" t="n">
-        <v>782.78</v>
+        <v>784.28</v>
       </c>
       <c r="K18" t="n">
-        <v>18.77999999999997</v>
+        <v>20.27999999999997</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>01/24/2025 10:11:12</t>
+          <t>01/30/2025 11:02:10</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1684,21 +1684,21 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">C 6294 </t>
+          <t xml:space="preserve">S 823 </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FERNANDA DE CARVALHO E SILVA TREVISAN</t>
+          <t>ANDRE SLAVIERO ABRAO FILHO</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C-Presente</t>
+          <t>S-Aspirante</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>15549</v>
+        <v>15554</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1712,20 +1712,20 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2968871</t>
+          <t>3124934</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>714</v>
+        <v>382</v>
       </c>
       <c r="I19" t="n">
-        <v>739.08</v>
+        <v>392.24</v>
       </c>
       <c r="J19" t="n">
-        <v>739.08</v>
+        <v>392.24</v>
       </c>
       <c r="K19" t="n">
-        <v>25.08000000000004</v>
+        <v>10.24000000000001</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1734,12 +1734,12 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>01/24/2025 14:52:48</t>
+          <t>01/30/2025 11:05:45</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>12/10/2024 00:00:00</t>
+          <t>01/10/2025 00:00:00</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -1751,12 +1751,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">C 6294 </t>
+          <t xml:space="preserve">C 3325 </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FERNANDA DE CARVALHO E SILVA TREVISAN</t>
+          <t>NASSER HAIDAR FILHO</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1779,20 +1779,20 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2968870</t>
+          <t>3104534</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>714</v>
+        <v>764</v>
       </c>
       <c r="I20" t="n">
-        <v>746.28</v>
+        <v>784.28</v>
       </c>
       <c r="J20" t="n">
-        <v>746.28</v>
+        <v>784.28</v>
       </c>
       <c r="K20" t="n">
-        <v>32.27999999999997</v>
+        <v>20.27999999999997</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1801,12 +1801,12 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>01/24/2025 14:51:48</t>
+          <t>01/30/2025 16:27:33</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>11/10/2024 00:00:00</t>
+          <t>01/10/2025 00:00:00</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -1818,12 +1818,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">B 1611 </t>
+          <t xml:space="preserve">B 850 </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MARIA ALICE PEREIRA DE ARAUJO</t>
+          <t>SYLVIA MARIA VIEIRA DE ANDRADE MATTAR</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>B-Vvo (A) Ausente</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1841,20 +1846,20 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>3119608</t>
+          <t>3130245</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>191</v>
+        <v>95.5</v>
       </c>
       <c r="I21" t="n">
-        <v>195.66</v>
+        <v>98.01000000000001</v>
       </c>
       <c r="J21" t="n">
-        <v>195.66</v>
+        <v>98.01000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>4.659999999999997</v>
+        <v>2.510000000000005</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1863,7 +1868,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>01/24/2025 12:36:42</t>
+          <t>01/30/2025 12:13:31</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1880,48 +1885,48 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">B 1397 </t>
+          <t xml:space="preserve">B 2204 </t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ROBERTA ZANICOTTI OLIVEIRA TARESZKIEWICZ</t>
+          <t>DEBORAH CHRISTINA FATUCH RABINOWITZ</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>B-Presente</t>
+          <t>B-Ausente</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>15533</v>
+        <v>15687</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0101</t>
+          <t>0102</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Mensalidades</t>
+          <t>Semestralidade</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2927630</t>
+          <t>3119631</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>714</v>
+        <v>1146</v>
       </c>
       <c r="I22" t="n">
-        <v>746.52</v>
+        <v>1176.52</v>
       </c>
       <c r="J22" t="n">
-        <v>746.52</v>
+        <v>1176.52</v>
       </c>
       <c r="K22" t="n">
-        <v>32.51999999999998</v>
+        <v>30.51999999999998</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1930,12 +1935,12 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>01/25/2025 10:38:08</t>
+          <t>01/30/2025 12:40:27</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>11/10/2024 00:00:00</t>
+          <t>01/10/2025 00:00:00</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -1947,48 +1952,48 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">B 1397 </t>
+          <t xml:space="preserve">B 3943 </t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ROBERTA ZANICOTTI OLIVEIRA TARESZKIEWICZ</t>
+          <t>FERNANDA WAMSER</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>B-Presente</t>
+          <t>B-Ausente</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>15533</v>
+        <v>15687</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0101</t>
+          <t>0102</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Mensalidades</t>
+          <t>Semestralidade</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2927631</t>
+          <t>3150443</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>714</v>
+        <v>1146</v>
       </c>
       <c r="I23" t="n">
-        <v>739.3200000000001</v>
+        <v>1146</v>
       </c>
       <c r="J23" t="n">
-        <v>739.3200000000001</v>
+        <v>1146</v>
       </c>
       <c r="K23" t="n">
-        <v>25.32000000000005</v>
+        <v>0</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1997,12 +2002,12 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>01/25/2025 10:59:14</t>
+          <t>01/30/2025 09:22:25</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>12/10/2024 00:00:00</t>
+          <t>02/10/2025 00:00:00</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2014,12 +2019,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">C 4438 </t>
+          <t xml:space="preserve">C 229 </t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ANNA BEATRIZ NICOLAU DOS SANTOS</t>
+          <t>BERNARD KULYSZ FATUCH</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2032,30 +2037,30 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0101</t>
+          <t>0102</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Mensalidades</t>
+          <t>Semestralidade</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>3120505</t>
+          <t>3150458</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>191</v>
+        <v>1146</v>
       </c>
       <c r="I24" t="n">
-        <v>195.66</v>
+        <v>1146</v>
       </c>
       <c r="J24" t="n">
-        <v>195.66</v>
+        <v>1146</v>
       </c>
       <c r="K24" t="n">
-        <v>4.659999999999997</v>
+        <v>0</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -2064,12 +2069,12 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>01/24/2025 14:59:24</t>
+          <t>01/30/2025 17:04:42</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>01/10/2025 00:00:00</t>
+          <t>02/10/2025 00:00:00</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -2081,48 +2086,48 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">B 3887 </t>
+          <t xml:space="preserve">C 1474 </t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>GABRIEL MEDEIROS REGNIER</t>
+          <t>RODOLFO SMIDTH BUSCHLE</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>B-Presente</t>
+          <t>C-Ausente</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>15533</v>
+        <v>15692</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0101</t>
+          <t>0102</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Mensalidades</t>
+          <t>Semestralidade</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2937828</t>
+          <t>3120169</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>714</v>
+        <v>1146</v>
       </c>
       <c r="I25" t="n">
-        <v>746.52</v>
+        <v>1176.52</v>
       </c>
       <c r="J25" t="n">
-        <v>746.52</v>
+        <v>1176.52</v>
       </c>
       <c r="K25" t="n">
-        <v>32.51999999999998</v>
+        <v>30.51999999999998</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -2131,12 +2136,12 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>01/25/2025 09:02:50</t>
+          <t>01/30/2025 05:13:23</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>11/10/2024 00:00:00</t>
+          <t>01/10/2025 00:00:00</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2148,48 +2153,48 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">R 2866 </t>
+          <t xml:space="preserve">C 5898 </t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>HUGO IRAPUAN LACERDA WERNECK</t>
+          <t>JULIANA BEVILAQUA DOS SANTOS PAULA</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>R-Barao Pagante</t>
+          <t>C-Ausente</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>15533</v>
+        <v>15692</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0101</t>
+          <t>0102</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Mensalidades</t>
+          <t>Semestralidade</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2987988</t>
+          <t>3150543</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>357</v>
+        <v>1146</v>
       </c>
       <c r="I26" t="n">
-        <v>373.14</v>
+        <v>1146</v>
       </c>
       <c r="J26" t="n">
-        <v>373.14</v>
+        <v>1146</v>
       </c>
       <c r="K26" t="n">
-        <v>16.13999999999999</v>
+        <v>0</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -2198,12 +2203,12 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>01/24/2025 15:14:02</t>
+          <t>01/30/2025 07:51:01</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>11/10/2024 00:00:00</t>
+          <t>02/10/2025 00:00:00</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -2215,12 +2220,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">C 3426 </t>
+          <t xml:space="preserve">C 184 </t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>RAFAELA LUNDGREN THA</t>
+          <t>RICARDO PROENCA DE PAOLA JUNIOR</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2243,20 +2248,20 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>3120399</t>
+          <t>3119998</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>1146</v>
       </c>
       <c r="I27" t="n">
-        <v>1174.24</v>
+        <v>1176.52</v>
       </c>
       <c r="J27" t="n">
-        <v>1174.24</v>
+        <v>1176.52</v>
       </c>
       <c r="K27" t="n">
-        <v>28.24000000000001</v>
+        <v>30.51999999999998</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -2265,7 +2270,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>01/24/2025 14:06:27</t>
+          <t>01/30/2025 14:49:12</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2282,12 +2287,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">C 649 </t>
+          <t xml:space="preserve">C 3796 </t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>JULIANA SAVASSI VIANNA</t>
+          <t>ANNA VITORIA ISFER ZARDO</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2310,20 +2315,20 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>3120059</t>
+          <t>3150522</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>1146</v>
       </c>
       <c r="I28" t="n">
-        <v>1174.24</v>
+        <v>1146</v>
       </c>
       <c r="J28" t="n">
-        <v>1174.24</v>
+        <v>1146</v>
       </c>
       <c r="K28" t="n">
-        <v>28.24000000000001</v>
+        <v>0</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -2332,12 +2337,12 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>01/24/2025 12:43:31</t>
+          <t>01/30/2025 05:22:39</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>01/10/2025 00:00:00</t>
+          <t>02/10/2025 00:00:00</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -2349,12 +2354,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">C 837 </t>
+          <t xml:space="preserve">C 747 </t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>HIRAN FRANCO DO LAGO</t>
+          <t>ANNA FLORA FORTE RAULI</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2367,30 +2372,30 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0106</t>
+          <t>0102</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Mensalidades</t>
+          <t>Semestralidade</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>3120084</t>
+          <t>3120072</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>955</v>
+        <v>1146</v>
       </c>
       <c r="I29" t="n">
-        <v>978.58</v>
+        <v>1176.52</v>
       </c>
       <c r="J29" t="n">
-        <v>978.58</v>
+        <v>1176.52</v>
       </c>
       <c r="K29" t="n">
-        <v>23.58000000000004</v>
+        <v>30.51999999999998</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -2399,7 +2404,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>01/24/2025 16:40:27</t>
+          <t>01/30/2025 17:36:50</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2416,48 +2421,48 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">S 4518 </t>
+          <t xml:space="preserve">C 7389 </t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TOBIAS DE MACEDO NETO</t>
+          <t>ERIKA BOSCOLO FONZAGHI</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>S-Asp.Ausente</t>
+          <t>C-Ausente</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>15720</v>
+        <v>15692</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0106</t>
+          <t>0102</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Mensalidades</t>
+          <t>Semestralidade</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>3119967</t>
+          <t>3150565</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>191</v>
+        <v>1146</v>
       </c>
       <c r="I30" t="n">
-        <v>195.66</v>
+        <v>1146</v>
       </c>
       <c r="J30" t="n">
-        <v>195.66</v>
+        <v>1146</v>
       </c>
       <c r="K30" t="n">
-        <v>4.659999999999997</v>
+        <v>0</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -2466,12 +2471,12 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>01/24/2025 14:38:17</t>
+          <t>01/30/2025 01:58:51</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>01/10/2025 00:00:00</t>
+          <t>02/10/2025 00:00:00</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -2483,62 +2488,62 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">B 3075 </t>
+          <t xml:space="preserve">B 3383 </t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>GONCALO MARINS FARFUD</t>
+          <t>MARIO WOLF FILHO</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>B-Presente</t>
+          <t>B-Ausente</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>16044</v>
+        <v>15687</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0303</t>
+          <t>0106</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Escol. De Tenis</t>
+          <t>Mensalidades</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>3149091</t>
+          <t>3035317</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>890</v>
+        <v>535.5</v>
       </c>
       <c r="I31" t="n">
-        <v>756.5</v>
+        <v>566.37</v>
       </c>
       <c r="J31" t="n">
-        <v>756.5</v>
+        <v>566.37</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>30.87</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>133.50</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>01/26/2025 09:11:13</t>
+          <t>01/30/2025 09:00:35</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>01/27/2025 08:47:45</t>
+          <t>10/10/2024 00:00:00</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -2550,12 +2555,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">B 958 </t>
+          <t xml:space="preserve">B 5658 </t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PABLO MANOEL P SOBREIRO</t>
+          <t>JOSE VILELA DE MAGALHAES NETO</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2564,48 +2569,48 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>16273</v>
+        <v>747</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0321</t>
+          <t>0601</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Escol. Jiu-Jitsu</t>
+          <t>Sauna Feminina</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>3150093</t>
+          <t>3060228</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>890</v>
+        <v>5</v>
       </c>
       <c r="I32" t="n">
-        <v>801</v>
+        <v>5.1</v>
       </c>
       <c r="J32" t="n">
-        <v>801</v>
+        <v>5.1</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>89.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>01/25/2025 13:42:11</t>
+          <t>01/30/2025 14:03:23</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>01/28/2025 13:39:22</t>
+          <t>12/06/2024 00:00:00</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -2617,12 +2622,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">C 4452 </t>
+          <t xml:space="preserve">C 978 </t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MARIANA APPEL ANDRADE</t>
+          <t>ANA LUISA CARNEIRO RIBEIRO</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2631,34 +2636,34 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4265</v>
+        <v>39154</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0330</t>
+          <t>1039</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Swasthya Yoga - Kjuliane</t>
+          <t>Aula De Beach Tennis - Leon Chaim</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>3145935</t>
+          <t>3144748</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>86</v>
+        <v>139.5</v>
       </c>
       <c r="I33" t="n">
-        <v>88.14</v>
+        <v>143.29</v>
       </c>
       <c r="J33" t="n">
-        <v>88.14</v>
+        <v>143.29</v>
       </c>
       <c r="K33" t="n">
-        <v>2.140000000000001</v>
+        <v>3.789999999999992</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -2667,7 +2672,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>01/24/2025 10:22:02</t>
+          <t>01/30/2025 13:24:25</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2684,48 +2689,48 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">B 4213 </t>
+          <t xml:space="preserve">C 978 </t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MARIA ALICE PINHEIRO L ANTONIETTO</t>
+          <t>ANA LUISA CARNEIRO RIBEIRO</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>B-Presente</t>
+          <t>C-Presente</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4265</v>
+        <v>39154</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0330</t>
+          <t>1039</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Swasthya Yoga - Kjuliane</t>
+          <t>Aula De Beach Tennis - Leon Chaim</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>3145915</t>
+          <t>3061307</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="I34" t="n">
-        <v>176.34</v>
+        <v>184.62</v>
       </c>
       <c r="J34" t="n">
-        <v>176.34</v>
+        <v>184.62</v>
       </c>
       <c r="K34" t="n">
-        <v>4.340000000000003</v>
+        <v>6.620000000000005</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -2734,12 +2739,12 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>01/25/2025 12:15:07</t>
+          <t>01/30/2025 13:24:25</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>01/10/2025 00:00:00</t>
+          <t>12/10/2024 00:00:00</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -2751,48 +2756,48 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">C 4452 </t>
+          <t xml:space="preserve">B 1820 </t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MARIANA APPEL ANDRADE</t>
+          <t>RENATA BECKERT ISFER</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>C-Presente</t>
+          <t>B-Presente</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>4265</v>
+        <v>39154</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0330</t>
+          <t>1039</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Swasthya Yoga - Kjuliane</t>
+          <t>Aula De Beach Tennis - Leon Chaim</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>3145936</t>
+          <t>3144956</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>86</v>
+        <v>139.5</v>
       </c>
       <c r="I35" t="n">
-        <v>88.14</v>
+        <v>143.29</v>
       </c>
       <c r="J35" t="n">
-        <v>88.14</v>
+        <v>143.29</v>
       </c>
       <c r="K35" t="n">
-        <v>2.140000000000001</v>
+        <v>3.789999999999992</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -2801,7 +2806,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>01/24/2025 10:19:24</t>
+          <t>01/30/2025 15:44:52</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -2818,12 +2823,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">B 4737 </t>
+          <t xml:space="preserve">B 2546 </t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>EDUARDO RODRIGO PUPPI MORO</t>
+          <t>ELIZABETH BASTOS DIAS TITTON</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2832,31 +2837,31 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>16301</v>
+        <v>15853</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0336</t>
+          <t>1707</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Personal Trainer Sbsa</t>
+          <t>Convite Temporário</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>3149215</t>
+          <t>3150787</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>152</v>
+        <v>324.7</v>
       </c>
       <c r="I36" t="n">
-        <v>152</v>
+        <v>324.7</v>
       </c>
       <c r="J36" t="n">
-        <v>152</v>
+        <v>324.7</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -2868,12 +2873,12 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>01/24/2025 11:04:56</t>
+          <t>01/30/2025 18:42:59</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>01/26/2025 00:00:00</t>
+          <t>01/31/2025 00:00:00</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -2885,12 +2890,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">B 1848 </t>
+          <t xml:space="preserve">B 1728 </t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MARCOS CHESI DE OLIVEIRA JUNIOR</t>
+          <t>TATIANA WAGNER L DE PAULA SIRENA</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2899,34 +2904,34 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>16301</v>
+        <v>28650</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0336</t>
+          <t>1909</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Personal Trainer Sbsa</t>
+          <t>Clubinho (Pacote)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>3048111</t>
+          <t>3150670</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>584</v>
+        <v>110</v>
       </c>
       <c r="I37" t="n">
-        <v>610.3099999999999</v>
+        <v>110</v>
       </c>
       <c r="J37" t="n">
-        <v>610.3099999999999</v>
+        <v>110</v>
       </c>
       <c r="K37" t="n">
-        <v>26.30999999999995</v>
+        <v>0</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -2935,12 +2940,12 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>01/26/2025 10:48:42</t>
+          <t>01/30/2025 13:35:09</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>11/10/2024 00:00:00</t>
+          <t>01/29/2025 00:00:00</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -2952,12 +2957,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">C 6756 </t>
+          <t xml:space="preserve">C 7999 </t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>AUGUSTO ROCHA PINTAL</t>
+          <t>ANDRE LUIS S VEIGA</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2966,31 +2971,31 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>16301</v>
+        <v>28650</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0336</t>
+          <t>1909</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Personal Trainer Sbsa</t>
+          <t>Clubinho (Pacote)</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>3149149</t>
+          <t>3150604</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="I38" t="n">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="J38" t="n">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3002,12 +3007,12 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>01/24/2025 09:17:53</t>
+          <t>01/30/2025 09:05:00</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>01/25/2025 00:00:00</t>
+          <t>01/29/2025 00:00:00</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -3019,12 +3024,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">C 1219 </t>
+          <t xml:space="preserve">C 7823 </t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MANOELA BASSANI CASTRO</t>
+          <t>LUCIANA CARNEIRO DE LARA DE MACEDO</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -3033,31 +3038,31 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>16301</v>
+        <v>747</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0336</t>
+          <t>2201</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Personal Trainer Sbsa</t>
+          <t>Devolucao De Mensalidades</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>3149211</t>
+          <t>3150708</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>228</v>
+        <v>-740.28</v>
       </c>
       <c r="I39" t="n">
-        <v>228</v>
+        <v>-740.28</v>
       </c>
       <c r="J39" t="n">
-        <v>228</v>
+        <v>-740.28</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3069,12 +3074,12 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>01/24/2025 10:53:55</t>
+          <t>01/30/2025 16:17:47</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>01/26/2025 00:00:00</t>
+          <t>01/31/2025 00:00:00</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -3086,12 +3091,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">C 1967 </t>
+          <t xml:space="preserve">C 1681 </t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>LETICIA PEREIRA DA COSTA GOIS NOGUEIRA</t>
+          <t>BRUNO CARSTENS MOMBELLI</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -3100,34 +3105,34 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>21964</v>
+        <v>22134</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0443</t>
+          <t>3009</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Curso De Artes</t>
+          <t>Torneio De Padel</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>3149243</t>
+          <t>3049942</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>1779</v>
+        <v>75</v>
       </c>
       <c r="I40" t="n">
-        <v>1779</v>
+        <v>77.88</v>
       </c>
       <c r="J40" t="n">
-        <v>1779</v>
+        <v>77.88</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>2.879999999999995</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -3136,12 +3141,12 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>01/25/2025 10:37:49</t>
+          <t>01/30/2025 09:49:07</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>01/27/2025 11:27:23</t>
+          <t>11/22/2024 00:00:00</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -3151,844 +3156,40 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B 4271 </t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>LETICIA CRISTINA DALLEDONE SIQUEIRA REIN</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>B-Presente</t>
-        </is>
-      </c>
       <c r="D41" t="n">
-        <v>21964</v>
+        <v>15073</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0443</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Curso De Artes</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>3149204</t>
+          <t>8888</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>1657</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1491.3</v>
+        <v>-29.7</v>
       </c>
       <c r="J41" t="n">
-        <v>1491.3</v>
+        <v>-29.7</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>165.70</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>01/24/2025 01:50:37</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>01/27/2025 01:35:06</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>Pix</t>
-        </is>
-      </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C 1967 </t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>LETICIA PEREIRA DA COSTA GOIS NOGUEIRA</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>C-Presente</t>
-        </is>
-      </c>
       <c r="D42" t="n">
-        <v>747</v>
+        <v>15073</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0463</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Devolução Curso De Artes</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>3149242</t>
+          <t>9999</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>-1657</v>
-      </c>
-      <c r="I42" t="n">
-        <v>-1657</v>
+        <v>-0.29</v>
       </c>
       <c r="J42" t="n">
-        <v>-1657</v>
+        <v>-0.29</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>01/25/2025 10:37:49</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>01/27/2025 11:26:17</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>Pix</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B 1792 </t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>HENRIQUE LEAL VIANNA</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>B-Presente</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>40552</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>1083</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Aula De Beach Tennis - Marcelo Stoberl</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>3150030</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="I43" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="J43" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>01/25/2025 09:08:56</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>02/07/2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>Pix</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B 1792 </t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>HENRIQUE LEAL VIANNA</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>B-Presente</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>40552</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>1083</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Aula De Beach Tennis - Marcelo Stoberl</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>3150031</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="I44" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="J44" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>01/25/2025 09:08:56</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>02/07/2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>Pix</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B 2555 </t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>TATIANA ALMEIDA BLITZKOW MARAN</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>B-Presente</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>15645</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>1504</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Taxa Despesa Cobranca</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>3148810</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>250</v>
-      </c>
-      <c r="I45" t="n">
-        <v>250</v>
-      </c>
-      <c r="J45" t="n">
-        <v>250</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>01/24/2025 11:36:39</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>01/20/2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>Pix</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C 608 </t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>FERNANDA TRAMUJAS AZEVEDO BUENO DO NASCIMENTO</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>C-Ausente</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>28650</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>1908</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Clubinho</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>3146070</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>5</v>
-      </c>
-      <c r="I46" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>01/24/2025 17:19:56</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>01/02/2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>Pix</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B 1272 </t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>GABRIELE DE MACEDO PINTO</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>B-Presente</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>28650</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>1909</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Clubinho (Pacote)</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>3141642</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>20</v>
-      </c>
-      <c r="I47" t="n">
-        <v>20</v>
-      </c>
-      <c r="J47" t="n">
-        <v>20</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>01/24/2025 21:57:16</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>12/21/2024 00:00:00</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>Pix</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C 2114 </t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>MARCEL BENTO AMARAL</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>C-Presente</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>28650</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>1909</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Clubinho (Pacote)</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>3149041</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>220</v>
-      </c>
-      <c r="I48" t="n">
-        <v>220</v>
-      </c>
-      <c r="J48" t="n">
-        <v>220</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>01/24/2025 14:48:18</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>01/22/2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>Pix</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C 6756 </t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>AUGUSTO ROCHA PINTAL</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>C-Presente</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>28650</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>1909</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Clubinho (Pacote)</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>3149207</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>220</v>
-      </c>
-      <c r="I49" t="n">
-        <v>220</v>
-      </c>
-      <c r="J49" t="n">
-        <v>220</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>01/24/2025 09:17:53</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>01/24/2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>Pix</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C 2387 </t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>THIAGO CAMARGO DUSZCZAK</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>C-Presente</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>28650</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>1909</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Clubinho (Pacote)</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>3149065</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>99</v>
-      </c>
-      <c r="I50" t="n">
-        <v>99</v>
-      </c>
-      <c r="J50" t="n">
-        <v>99</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>01/24/2025 15:53:58</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>01/22/2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>Pix</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B 1272 </t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>GABRIELE DE MACEDO PINTO</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>B-Presente</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>28650</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>1909</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Clubinho (Pacote)</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>3141643</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>18</v>
-      </c>
-      <c r="I51" t="n">
-        <v>18</v>
-      </c>
-      <c r="J51" t="n">
-        <v>18</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>01/24/2025 21:57:16</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>12/21/2024 00:00:00</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>Pix</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C 6758 </t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>BRUNO LUIZ VIANNA CLEMENTI</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>C-Presente</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>28650</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>1909</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Clubinho (Pacote)</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>3150058</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>55</v>
-      </c>
-      <c r="I52" t="n">
-        <v>55</v>
-      </c>
-      <c r="J52" t="n">
-        <v>55</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>01/26/2025 17:36:49</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>01/25/2025 00:00:00</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>Pix</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="D53" t="n">
-        <v>15073</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>8888</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>-42.3</v>
-      </c>
-      <c r="J53" t="n">
-        <v>-42.3</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="D54" t="n">
-        <v>15073</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>9999</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>-0.29</v>
-      </c>
-      <c r="J54" t="n">
-        <v>-0.29</v>
-      </c>
-      <c r="K54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4003,7 +3204,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4066,17 +3267,17 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>2927630 B 1397  ROBERTA ZANICOTTI OLIVEIRA TARESZKIEWICZ</t>
+          <t>3073388 B 2217  ANDRE SLAVIERO ABRAO</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>714</v>
+        <v>764</v>
       </c>
       <c r="F2" t="n">
-        <v>32.51999999999998</v>
+        <v>20.27999999999997</v>
       </c>
       <c r="G2" t="n">
-        <v>746.52</v>
+        <v>784.28</v>
       </c>
     </row>
     <row r="3">
@@ -4085,17 +3286,17 @@
       <c r="C3" s="1" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>2927631 B 1397  ROBERTA ZANICOTTI OLIVEIRA TARESZKIEWICZ</t>
+          <t>3081757 B 4218  BRUNA TROMBINI PEREZ BERNAL</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>714</v>
+        <v>764</v>
       </c>
       <c r="F3" t="n">
-        <v>25.32000000000005</v>
+        <v>20.27999999999997</v>
       </c>
       <c r="G3" t="n">
-        <v>739.3200000000001</v>
+        <v>784.28</v>
       </c>
     </row>
     <row r="4">
@@ -4104,36 +3305,40 @@
       <c r="C4" s="1" t="n"/>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>2937828 B 3887  GABRIEL MEDEIROS REGNIER</t>
+          <t>Subtotal</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>714</v>
+        <v>1528</v>
       </c>
       <c r="F4" t="n">
-        <v>32.51999999999998</v>
+        <v>40.55999999999995</v>
       </c>
       <c r="G4" t="n">
-        <v>746.52</v>
+        <v>1568.56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
-      <c r="C5" s="1" t="n"/>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>R-Barao Pagante</t>
+        </is>
+      </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>3066811 B 617  JULIANA MARCELA NOVAKOWSKI</t>
+          <t>3130438 R 2779  JOAO ABRAO FILHO</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>764</v>
+        <v>382</v>
       </c>
       <c r="F5" t="n">
-        <v>19.02999999999997</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>783.03</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6">
@@ -4142,17 +3347,17 @@
       <c r="C6" s="1" t="n"/>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>3078523 B 3426  MAURA CRISTHIANE MARCONATTO VECCHI CONTADOR</t>
+          <t>3130659 R 2854  MARCOS SLAVIERO</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>764</v>
+        <v>382</v>
       </c>
       <c r="F6" t="n">
-        <v>18.77999999999997</v>
+        <v>10.24000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>782.78</v>
+        <v>392.24</v>
       </c>
     </row>
     <row r="7">
@@ -4161,40 +3366,36 @@
       <c r="C7" s="1" t="n"/>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>Subtotal</t>
+          <t>3135860 R 4382  HILTON DE PAULA X MARCHIORO</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3670</v>
+        <v>382</v>
       </c>
       <c r="F7" t="n">
-        <v>128.17</v>
+        <v>10.24000000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>3798.17</v>
+        <v>392.24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>R-Barao Pagante</t>
-        </is>
-      </c>
+      <c r="C8" s="1" t="n"/>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>2987988 R 2866  HUGO IRAPUAN LACERDA WERNECK</t>
+          <t>3135861 R 4382  HILTON DE PAULA X MARCHIORO</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="F8" t="n">
-        <v>16.13999999999999</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>373.14</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9">
@@ -4207,13 +3408,13 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>357</v>
+        <v>1528</v>
       </c>
       <c r="F9" t="n">
-        <v>16.13999999999999</v>
+        <v>20.48000000000002</v>
       </c>
       <c r="G9" t="n">
-        <v>373.14</v>
+        <v>1548.48</v>
       </c>
     </row>
     <row r="10">
@@ -4226,13 +3427,13 @@
       </c>
       <c r="D10" s="1" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>4027</v>
+        <v>3056</v>
       </c>
       <c r="F10" t="n">
-        <v>144.3099999999999</v>
+        <v>61.03999999999996</v>
       </c>
       <c r="G10" t="n">
-        <v>4171.31</v>
+        <v>3117.04</v>
       </c>
     </row>
     <row r="11">
@@ -4249,17 +3450,17 @@
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>2955393 C 2023  ROMULO BUNESE ROCHA</t>
+          <t>2950524 C 885  ANDRE GUSTAVO M. TOLENTINO</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>714</v>
       </c>
       <c r="F11" t="n">
-        <v>32.75999999999999</v>
+        <v>26.51999999999998</v>
       </c>
       <c r="G11" t="n">
-        <v>746.76</v>
+        <v>740.52</v>
       </c>
     </row>
     <row r="12">
@@ -4268,17 +3469,17 @@
       <c r="C12" s="1" t="n"/>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>2955394 C 2023  ROMULO BUNESE ROCHA</t>
+          <t>2950969 C 978  ANA LUISA CARNEIRO RIBEIRO</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>714</v>
       </c>
       <c r="F12" t="n">
-        <v>25.55999999999995</v>
+        <v>26.51999999999998</v>
       </c>
       <c r="G12" t="n">
-        <v>739.5599999999999</v>
+        <v>740.52</v>
       </c>
     </row>
     <row r="13">
@@ -4287,17 +3488,17 @@
       <c r="C13" s="1" t="n"/>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>2956414 C 2284  ADRIANO AGUIAR SOCHER</t>
+          <t>2971889 C 7245  BIANCA ALMEIDA NATAL FAUST</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>714</v>
       </c>
       <c r="F13" t="n">
-        <v>32.03999999999996</v>
+        <v>26.51999999999998</v>
       </c>
       <c r="G13" t="n">
-        <v>746.04</v>
+        <v>740.52</v>
       </c>
     </row>
     <row r="14">
@@ -4306,17 +3507,17 @@
       <c r="C14" s="1" t="n"/>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>2958582 C 2913  FERNANDO BUFREM</t>
+          <t>2972833 C 7521  LEO FERNANDO DA S DITZEL FILHO</t>
         </is>
       </c>
       <c r="E14" t="n">
         <v>714</v>
       </c>
       <c r="F14" t="n">
-        <v>32.27999999999997</v>
+        <v>26.51999999999998</v>
       </c>
       <c r="G14" t="n">
-        <v>746.28</v>
+        <v>740.52</v>
       </c>
     </row>
     <row r="15">
@@ -4325,17 +3526,17 @@
       <c r="C15" s="1" t="n"/>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>2959683 C 3240  SIBELLE PEREIRA DE SOUZA</t>
+          <t>3096068 C 978  ANA LUISA CARNEIRO RIBEIRO</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>714</v>
+        <v>764</v>
       </c>
       <c r="F15" t="n">
-        <v>32.51999999999998</v>
+        <v>20.27999999999997</v>
       </c>
       <c r="G15" t="n">
-        <v>746.52</v>
+        <v>784.28</v>
       </c>
     </row>
     <row r="16">
@@ -4344,17 +3545,17 @@
       <c r="C16" s="1" t="n"/>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>2968870 C 6294  FERNANDA DE CARVALHO E SILVA TREVISAN</t>
+          <t>3104534 C 3325  NASSER HAIDAR FILHO</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>714</v>
+        <v>764</v>
       </c>
       <c r="F16" t="n">
-        <v>32.27999999999997</v>
+        <v>20.27999999999997</v>
       </c>
       <c r="G16" t="n">
-        <v>746.28</v>
+        <v>784.28</v>
       </c>
     </row>
     <row r="17">
@@ -4363,17 +3564,17 @@
       <c r="C17" s="1" t="n"/>
       <c r="D17" s="1" t="inlineStr">
         <is>
-          <t>2968871 C 6294  FERNANDA DE CARVALHO E SILVA TREVISAN</t>
+          <t>3105158 C 3527  RICARDO TASSI FILHO</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>714</v>
+        <v>764</v>
       </c>
       <c r="F17" t="n">
-        <v>25.08000000000004</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>739.08</v>
+        <v>764</v>
       </c>
     </row>
     <row r="18">
@@ -4382,17 +3583,17 @@
       <c r="C18" s="1" t="n"/>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>3096006 C 961  FLAVIA GOMES STECHMAN</t>
+          <t>3109246 C 4737  MIRELLA BUTTURA CHRUSCIAK</t>
         </is>
       </c>
       <c r="E18" t="n">
         <v>764</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>20.27999999999997</v>
       </c>
       <c r="G18" t="n">
-        <v>764</v>
+        <v>784.28</v>
       </c>
     </row>
     <row r="19">
@@ -4401,17 +3602,17 @@
       <c r="C19" s="1" t="n"/>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>3096362 C 1053  LUISA CORREA LOBO</t>
+          <t>3116157 C 7521  LEO FERNANDO DA S DITZEL FILHO</t>
         </is>
       </c>
       <c r="E19" t="n">
         <v>764</v>
       </c>
       <c r="F19" t="n">
-        <v>19.27999999999997</v>
+        <v>20.27999999999997</v>
       </c>
       <c r="G19" t="n">
-        <v>783.28</v>
+        <v>784.28</v>
       </c>
     </row>
     <row r="20">
@@ -4420,17 +3621,17 @@
       <c r="C20" s="1" t="n"/>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>3098040 C 1500  LEONARDO VECCHI CONTADOR</t>
+          <t>3117082 C 7823  LUCIANA CARNEIRO DE LARA DE MACEDO</t>
         </is>
       </c>
       <c r="E20" t="n">
         <v>764</v>
       </c>
       <c r="F20" t="n">
-        <v>18.77999999999997</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>782.78</v>
+        <v>764</v>
       </c>
     </row>
     <row r="21">
@@ -4439,55 +3640,63 @@
       <c r="C21" s="1" t="n"/>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>3100147 C 2023  ROMULO BUNESE ROCHA</t>
+          <t>Subtotal</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>764</v>
+        <v>7440</v>
       </c>
       <c r="F21" t="n">
-        <v>19.27999999999997</v>
+        <v>187.1999999999998</v>
       </c>
       <c r="G21" t="n">
-        <v>783.28</v>
+        <v>7627.199999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
-      <c r="C22" s="1" t="n"/>
-      <c r="D22" s="1" t="inlineStr">
-        <is>
-          <t>3100521 C 2115  CARLOS AUGUSTO BEDUSCHI</t>
-        </is>
-      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>Subtotal</t>
+        </is>
+      </c>
+      <c r="D22" s="1" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>764</v>
+        <v>7440</v>
       </c>
       <c r="F22" t="n">
-        <v>18.77999999999997</v>
+        <v>187.1999999999998</v>
       </c>
       <c r="G22" t="n">
-        <v>782.78</v>
+        <v>7627.199999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
-      <c r="B23" s="1" t="n"/>
-      <c r="C23" s="1" t="n"/>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>101 Mensalidades|Contábil: 15554</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>S-Aspirante</t>
+        </is>
+      </c>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>3102726 C 2766  MATHEUS ARZUA CASAGRANDE</t>
+          <t>3123498 S 493  LAURA ANDRZEJEWSKI PAMPUCH</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>764</v>
+        <v>382</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>10.24000000000001</v>
       </c>
       <c r="G23" t="n">
-        <v>764</v>
+        <v>392.24</v>
       </c>
     </row>
     <row r="24">
@@ -4496,17 +3705,17 @@
       <c r="C24" s="1" t="n"/>
       <c r="D24" s="1" t="inlineStr">
         <is>
-          <t>3104373 C 3276  VANIA MARIAN GUERINO FARINHA</t>
+          <t>3124934 S 823  ANDRE SLAVIERO ABRAO FILHO</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>764</v>
+        <v>382</v>
       </c>
       <c r="F24" t="n">
-        <v>18.77999999999997</v>
+        <v>10.24000000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>782.78</v>
+        <v>392.24</v>
       </c>
     </row>
     <row r="25">
@@ -4515,17 +3724,17 @@
       <c r="C25" s="1" t="n"/>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t>3104415 C 3293  MARIANA OLIVA</t>
+          <t>3126591 S 1168  SOPHIA LAURA STEC LIBLIK</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>764</v>
+        <v>382</v>
       </c>
       <c r="F25" t="n">
-        <v>18.77999999999997</v>
+        <v>10.24000000000001</v>
       </c>
       <c r="G25" t="n">
-        <v>782.78</v>
+        <v>392.24</v>
       </c>
     </row>
     <row r="26">
@@ -4534,147 +3743,151 @@
       <c r="C26" s="1" t="n"/>
       <c r="D26" s="1" t="inlineStr">
         <is>
-          <t>3112862 C 6294  FERNANDA DE CARVALHO E SILVA TREVISAN</t>
+          <t>Subtotal</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>764</v>
+        <v>1146</v>
       </c>
       <c r="F26" t="n">
-        <v>18.77999999999997</v>
+        <v>30.72000000000003</v>
       </c>
       <c r="G26" t="n">
-        <v>782.78</v>
+        <v>1176.72</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="1" t="n"/>
-      <c r="C27" s="1" t="n"/>
-      <c r="D27" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
+      <c r="D27" s="1" t="inlineStr"/>
       <c r="E27" t="n">
-        <v>11874</v>
+        <v>1146</v>
       </c>
       <c r="F27" t="n">
-        <v>344.9799999999997</v>
+        <v>30.72000000000003</v>
       </c>
       <c r="G27" t="n">
-        <v>12218.98</v>
+        <v>1176.72</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n"/>
-      <c r="B28" s="1" t="n"/>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>101 Mensalidades|Contábil: 747</t>
+        </is>
+      </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>Subtotal</t>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr"/>
+          <t>B-Vvo (A) Ausente</t>
+        </is>
+      </c>
+      <c r="D28" s="1" t="inlineStr">
+        <is>
+          <t>3130245 B 850  SYLVIA MARIA VIEIRA DE ANDRADE MATTAR</t>
+        </is>
+      </c>
       <c r="E28" t="n">
-        <v>11874</v>
+        <v>95.5</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9799999999997</v>
+        <v>2.510000000000005</v>
       </c>
       <c r="G28" t="n">
-        <v>12218.98</v>
+        <v>98.01000000000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>101 Mensalidades|Contábil: 15561</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t>B-Viuvo (A) Pg. 100%</t>
-        </is>
-      </c>
+      <c r="B29" s="1" t="n"/>
+      <c r="C29" s="1" t="n"/>
       <c r="D29" s="1" t="inlineStr">
         <is>
-          <t>3139168 B 2889  MARCIA CRISTINA CARNIERI MACEDO</t>
+          <t>Subtotal</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>764</v>
+        <v>95.5</v>
       </c>
       <c r="F29" t="n">
-        <v>18.77999999999997</v>
+        <v>2.510000000000005</v>
       </c>
       <c r="G29" t="n">
-        <v>782.78</v>
+        <v>98.01000000000001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="1" t="n"/>
-      <c r="C30" s="1" t="n"/>
-      <c r="D30" s="1" t="inlineStr">
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
+      <c r="D30" s="1" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>764</v>
+        <v>95.5</v>
       </c>
       <c r="F30" t="n">
-        <v>18.77999999999997</v>
+        <v>2.510000000000005</v>
       </c>
       <c r="G30" t="n">
-        <v>782.78</v>
+        <v>98.01000000000001</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n"/>
-      <c r="B31" s="1" t="n"/>
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>0102</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>102 Semestralidade|Contábil: 15687</t>
+        </is>
+      </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>Subtotal</t>
-        </is>
-      </c>
-      <c r="D31" s="1" t="inlineStr"/>
+          <t>B-Ausente</t>
+        </is>
+      </c>
+      <c r="D31" s="1" t="inlineStr">
+        <is>
+          <t>3119631 B 2204  DEBORAH CHRISTINA FATUCH RABINOWITZ</t>
+        </is>
+      </c>
       <c r="E31" t="n">
-        <v>764</v>
+        <v>1146</v>
       </c>
       <c r="F31" t="n">
-        <v>18.77999999999997</v>
+        <v>30.51999999999998</v>
       </c>
       <c r="G31" t="n">
-        <v>782.78</v>
+        <v>1176.52</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n"/>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>101 Mensalidades|Contábil: 15692</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <t>C-Ausente</t>
-        </is>
-      </c>
+      <c r="B32" s="1" t="n"/>
+      <c r="C32" s="1" t="n"/>
       <c r="D32" s="1" t="inlineStr">
         <is>
-          <t>3120505 C 4438  ANNA BEATRIZ NICOLAU DOS SANTOS</t>
+          <t>3150443 B 3943  FERNANDA WAMSER</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>191</v>
+        <v>1146</v>
       </c>
       <c r="F32" t="n">
-        <v>4.659999999999997</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>195.66</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="33">
@@ -4687,13 +3900,13 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>191</v>
+        <v>2292</v>
       </c>
       <c r="F33" t="n">
-        <v>4.659999999999997</v>
+        <v>30.51999999999998</v>
       </c>
       <c r="G33" t="n">
-        <v>195.66</v>
+        <v>2322.52</v>
       </c>
     </row>
     <row r="34">
@@ -4706,21 +3919,17 @@
       </c>
       <c r="D34" s="1" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>191</v>
+        <v>2292</v>
       </c>
       <c r="F34" t="n">
-        <v>4.659999999999997</v>
+        <v>30.51999999999998</v>
       </c>
       <c r="G34" t="n">
-        <v>195.66</v>
+        <v>2322.52</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>0102</t>
-        </is>
-      </c>
+      <c r="A35" s="1" t="n"/>
       <c r="B35" s="1" t="inlineStr">
         <is>
           <t>102 Semestralidade|Contábil: 15692</t>
@@ -4733,17 +3942,17 @@
       </c>
       <c r="D35" s="1" t="inlineStr">
         <is>
-          <t>3120059 C 649  JULIANA SAVASSI VIANNA</t>
+          <t>3119998 C 184  RICARDO PROENCA DE PAOLA JUNIOR</t>
         </is>
       </c>
       <c r="E35" t="n">
         <v>1146</v>
       </c>
       <c r="F35" t="n">
-        <v>28.24000000000001</v>
+        <v>30.51999999999998</v>
       </c>
       <c r="G35" t="n">
-        <v>1174.24</v>
+        <v>1176.52</v>
       </c>
     </row>
     <row r="36">
@@ -4752,17 +3961,17 @@
       <c r="C36" s="1" t="n"/>
       <c r="D36" s="1" t="inlineStr">
         <is>
-          <t>3120399 C 3426  RAFAELA LUNDGREN THA</t>
+          <t>3120072 C 747  ANNA FLORA FORTE RAULI</t>
         </is>
       </c>
       <c r="E36" t="n">
         <v>1146</v>
       </c>
       <c r="F36" t="n">
-        <v>28.24000000000001</v>
+        <v>30.51999999999998</v>
       </c>
       <c r="G36" t="n">
-        <v>1174.24</v>
+        <v>1176.52</v>
       </c>
     </row>
     <row r="37">
@@ -4771,67 +3980,55 @@
       <c r="C37" s="1" t="n"/>
       <c r="D37" s="1" t="inlineStr">
         <is>
-          <t>Subtotal</t>
+          <t>3120169 C 1474  RODOLFO SMIDTH BUSCHLE</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2292</v>
+        <v>1146</v>
       </c>
       <c r="F37" t="n">
-        <v>56.48000000000002</v>
+        <v>30.51999999999998</v>
       </c>
       <c r="G37" t="n">
-        <v>2348.48</v>
+        <v>1176.52</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="1" t="n"/>
-      <c r="C38" s="1" t="inlineStr">
-        <is>
-          <t>Subtotal</t>
-        </is>
-      </c>
-      <c r="D38" s="1" t="inlineStr"/>
+      <c r="C38" s="1" t="n"/>
+      <c r="D38" s="1" t="inlineStr">
+        <is>
+          <t>3150458 C 229  BERNARD KULYSZ FATUCH</t>
+        </is>
+      </c>
       <c r="E38" t="n">
-        <v>2292</v>
+        <v>1146</v>
       </c>
       <c r="F38" t="n">
-        <v>56.48000000000002</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2348.48</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>0106</t>
-        </is>
-      </c>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>106 Mensalidades|Contábil: 15692</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t>C-Ausente</t>
-        </is>
-      </c>
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="1" t="n"/>
+      <c r="C39" s="1" t="n"/>
       <c r="D39" s="1" t="inlineStr">
         <is>
-          <t>3120084 C 837  HIRAN FRANCO DO LAGO</t>
+          <t>3150522 C 3796  ANNA VITORIA ISFER ZARDO</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>955</v>
+        <v>1146</v>
       </c>
       <c r="F39" t="n">
-        <v>23.58000000000004</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>978.58</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="40">
@@ -4840,312 +4037,304 @@
       <c r="C40" s="1" t="n"/>
       <c r="D40" s="1" t="inlineStr">
         <is>
-          <t>Subtotal</t>
+          <t>3150543 C 5898  JULIANA BEVILAQUA DOS SANTOS PAULA</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>955</v>
+        <v>1146</v>
       </c>
       <c r="F40" t="n">
-        <v>23.58000000000004</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>978.58</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n"/>
       <c r="B41" s="1" t="n"/>
-      <c r="C41" s="1" t="inlineStr">
-        <is>
-          <t>Subtotal</t>
-        </is>
-      </c>
-      <c r="D41" s="1" t="inlineStr"/>
+      <c r="C41" s="1" t="n"/>
+      <c r="D41" s="1" t="inlineStr">
+        <is>
+          <t>3150565 C 7389  ERIKA BOSCOLO FONZAGHI</t>
+        </is>
+      </c>
       <c r="E41" t="n">
-        <v>955</v>
+        <v>1146</v>
       </c>
       <c r="F41" t="n">
-        <v>23.58000000000004</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>978.58</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n"/>
-      <c r="B42" s="1" t="inlineStr">
-        <is>
-          <t>106 Mensalidades|Contábil: 15720</t>
-        </is>
-      </c>
-      <c r="C42" s="1" t="inlineStr">
-        <is>
-          <t>S-Asp.Ausente</t>
-        </is>
-      </c>
+      <c r="B42" s="1" t="n"/>
+      <c r="C42" s="1" t="n"/>
       <c r="D42" s="1" t="inlineStr">
         <is>
-          <t>3119967 S 4518  TOBIAS DE MACEDO NETO</t>
+          <t>Subtotal</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>191</v>
+        <v>8022</v>
       </c>
       <c r="F42" t="n">
-        <v>4.659999999999997</v>
+        <v>91.55999999999995</v>
       </c>
       <c r="G42" t="n">
-        <v>195.66</v>
+        <v>8113.559999999999</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="1" t="n"/>
-      <c r="C43" s="1" t="n"/>
-      <c r="D43" s="1" t="inlineStr">
+      <c r="C43" s="1" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
+      <c r="D43" s="1" t="inlineStr"/>
       <c r="E43" t="n">
-        <v>191</v>
+        <v>8022</v>
       </c>
       <c r="F43" t="n">
-        <v>4.659999999999997</v>
+        <v>91.55999999999995</v>
       </c>
       <c r="G43" t="n">
-        <v>195.66</v>
+        <v>8113.559999999999</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
-      <c r="B44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>0106</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>106 Mensalidades|Contábil: 15687</t>
+        </is>
+      </c>
       <c r="C44" s="1" t="inlineStr">
         <is>
+          <t>B-Ausente</t>
+        </is>
+      </c>
+      <c r="D44" s="1" t="inlineStr">
+        <is>
+          <t>3035317 B 3383  MARIO WOLF FILHO</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>535.5</v>
+      </c>
+      <c r="F44" t="n">
+        <v>30.87</v>
+      </c>
+      <c r="G44" t="n">
+        <v>566.37</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="1" t="n"/>
+      <c r="C45" s="1" t="n"/>
+      <c r="D45" s="1" t="inlineStr">
+        <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="D44" s="1" t="inlineStr"/>
-      <c r="E44" t="n">
-        <v>191</v>
-      </c>
-      <c r="F44" t="n">
-        <v>4.659999999999997</v>
-      </c>
-      <c r="G44" t="n">
-        <v>195.66</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>0303</t>
-        </is>
-      </c>
-      <c r="B45" s="1" t="inlineStr">
-        <is>
-          <t>303 Escol. De Tenis|Contábil: 16044</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <t>B-Presente</t>
-        </is>
-      </c>
-      <c r="D45" s="1" t="inlineStr">
-        <is>
-          <t>3149091 B 3075  GONCALO MARINS FARFUD</t>
-        </is>
-      </c>
       <c r="E45" t="n">
-        <v>890</v>
+        <v>535.5</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>30.87</v>
       </c>
       <c r="G45" t="n">
-        <v>756.5</v>
+        <v>566.37</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="1" t="n"/>
-      <c r="C46" s="1" t="n"/>
-      <c r="D46" s="1" t="inlineStr">
+      <c r="C46" s="1" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
+      <c r="D46" s="1" t="inlineStr"/>
       <c r="E46" t="n">
-        <v>890</v>
+        <v>535.5</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>30.87</v>
       </c>
       <c r="G46" t="n">
-        <v>756.5</v>
+        <v>566.37</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n"/>
-      <c r="B47" s="1" t="n"/>
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>0601</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>601 Sauna Feminina|Contábil: 747</t>
+        </is>
+      </c>
       <c r="C47" s="1" t="inlineStr">
         <is>
+          <t>B-Presente</t>
+        </is>
+      </c>
+      <c r="D47" s="1" t="inlineStr">
+        <is>
+          <t>3060228 B 5658  JOSE VILELA DE MAGALHAES NETO</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>5</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.09999999999999964</v>
+      </c>
+      <c r="G47" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="1" t="n"/>
+      <c r="C48" s="1" t="n"/>
+      <c r="D48" s="1" t="inlineStr">
+        <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="D47" s="1" t="inlineStr"/>
-      <c r="E47" t="n">
-        <v>890</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>756.5</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>0321</t>
-        </is>
-      </c>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>321 Escol. Jiu-Jitsu|Contábil: 16273</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr">
-        <is>
-          <t>B-Presente</t>
-        </is>
-      </c>
-      <c r="D48" s="1" t="inlineStr">
-        <is>
-          <t>3150093 B 958  PABLO MANOEL P SOBREIRO</t>
-        </is>
-      </c>
       <c r="E48" t="n">
-        <v>890</v>
+        <v>5</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="G48" t="n">
-        <v>801</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n"/>
       <c r="B49" s="1" t="n"/>
-      <c r="C49" s="1" t="n"/>
-      <c r="D49" s="1" t="inlineStr">
+      <c r="C49" s="1" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
+      <c r="D49" s="1" t="inlineStr"/>
       <c r="E49" t="n">
-        <v>890</v>
+        <v>5</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="G49" t="n">
-        <v>801</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n"/>
-      <c r="B50" s="1" t="n"/>
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>1039</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>1039 Aula De Beach Tennis - Leon Chaim|Contábil: 39154</t>
+        </is>
+      </c>
       <c r="C50" s="1" t="inlineStr">
         <is>
+          <t>B-Presente</t>
+        </is>
+      </c>
+      <c r="D50" s="1" t="inlineStr">
+        <is>
+          <t>3144956 B 1820  RENATA BECKERT ISFER</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>139.5</v>
+      </c>
+      <c r="F50" t="n">
+        <v>3.789999999999992</v>
+      </c>
+      <c r="G50" t="n">
+        <v>143.29</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="1" t="n"/>
+      <c r="C51" s="1" t="n"/>
+      <c r="D51" s="1" t="inlineStr">
+        <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="D50" s="1" t="inlineStr"/>
-      <c r="E50" t="n">
-        <v>890</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>0330</t>
-        </is>
-      </c>
-      <c r="B51" s="1" t="inlineStr">
-        <is>
-          <t>330 Swasthya Yoga - Kjuliane|Contábil: 4265</t>
-        </is>
-      </c>
-      <c r="C51" s="1" t="inlineStr">
-        <is>
-          <t>B-Presente</t>
-        </is>
-      </c>
-      <c r="D51" s="1" t="inlineStr">
-        <is>
-          <t>3145915 B 4213  MARIA ALICE PINHEIRO L ANTONIETTO</t>
-        </is>
-      </c>
       <c r="E51" t="n">
-        <v>172</v>
+        <v>139.5</v>
       </c>
       <c r="F51" t="n">
-        <v>4.340000000000003</v>
+        <v>3.789999999999992</v>
       </c>
       <c r="G51" t="n">
-        <v>176.34</v>
+        <v>143.29</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="1" t="n"/>
-      <c r="C52" s="1" t="n"/>
+      <c r="C52" s="1" t="inlineStr">
+        <is>
+          <t>C-Presente</t>
+        </is>
+      </c>
       <c r="D52" s="1" t="inlineStr">
         <is>
-          <t>Subtotal</t>
+          <t>3061307 C 978  ANA LUISA CARNEIRO RIBEIRO</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F52" t="n">
-        <v>4.340000000000003</v>
+        <v>6.620000000000005</v>
       </c>
       <c r="G52" t="n">
-        <v>176.34</v>
+        <v>184.62</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n"/>
       <c r="B53" s="1" t="n"/>
-      <c r="C53" s="1" t="inlineStr">
-        <is>
-          <t>C-Presente</t>
-        </is>
-      </c>
+      <c r="C53" s="1" t="n"/>
       <c r="D53" s="1" t="inlineStr">
         <is>
-          <t>3145935 C 4452  MARIANA APPEL ANDRADE</t>
+          <t>3144748 C 978  ANA LUISA CARNEIRO RIBEIRO</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>86</v>
+        <v>139.5</v>
       </c>
       <c r="F53" t="n">
-        <v>2.140000000000001</v>
+        <v>3.789999999999992</v>
       </c>
       <c r="G53" t="n">
-        <v>88.14</v>
+        <v>143.29</v>
       </c>
     </row>
     <row r="54">
@@ -5154,166 +4343,178 @@
       <c r="C54" s="1" t="n"/>
       <c r="D54" s="1" t="inlineStr">
         <is>
-          <t>3145936 C 4452  MARIANA APPEL ANDRADE</t>
+          <t>Subtotal</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>86</v>
+        <v>317.5</v>
       </c>
       <c r="F54" t="n">
-        <v>2.140000000000001</v>
+        <v>10.41</v>
       </c>
       <c r="G54" t="n">
-        <v>88.14</v>
+        <v>327.91</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="1" t="n"/>
-      <c r="C55" s="1" t="n"/>
-      <c r="D55" s="1" t="inlineStr">
+      <c r="C55" s="1" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
+      <c r="D55" s="1" t="inlineStr"/>
       <c r="E55" t="n">
-        <v>172</v>
+        <v>457</v>
       </c>
       <c r="F55" t="n">
-        <v>4.280000000000001</v>
+        <v>14.19999999999999</v>
       </c>
       <c r="G55" t="n">
-        <v>176.28</v>
+        <v>471.1999999999999</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n"/>
-      <c r="B56" s="1" t="n"/>
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>1707</t>
+        </is>
+      </c>
+      <c r="B56" s="1" t="inlineStr">
+        <is>
+          <t>1707 Convite Temporário|Contábil: 15853</t>
+        </is>
+      </c>
       <c r="C56" s="1" t="inlineStr">
         <is>
+          <t>B-Presente</t>
+        </is>
+      </c>
+      <c r="D56" s="1" t="inlineStr">
+        <is>
+          <t>3150787 B 2546  ELIZABETH BASTOS DIAS TITTON</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>324.7</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>324.7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="1" t="n"/>
+      <c r="C57" s="1" t="n"/>
+      <c r="D57" s="1" t="inlineStr">
+        <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="D56" s="1" t="inlineStr"/>
-      <c r="E56" t="n">
-        <v>344</v>
-      </c>
-      <c r="F56" t="n">
-        <v>8.620000000000005</v>
-      </c>
-      <c r="G56" t="n">
-        <v>352.62</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>0336</t>
-        </is>
-      </c>
-      <c r="B57" s="1" t="inlineStr">
-        <is>
-          <t>336 Personal Trainer Sbsa|Contábil: 16301</t>
-        </is>
-      </c>
-      <c r="C57" s="1" t="inlineStr">
-        <is>
-          <t>B-Presente</t>
-        </is>
-      </c>
-      <c r="D57" s="1" t="inlineStr">
-        <is>
-          <t>3048111 B 1848  MARCOS CHESI DE OLIVEIRA JUNIOR</t>
-        </is>
-      </c>
       <c r="E57" t="n">
-        <v>584</v>
+        <v>324.7</v>
       </c>
       <c r="F57" t="n">
-        <v>26.30999999999995</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>610.3099999999999</v>
+        <v>324.7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n"/>
       <c r="B58" s="1" t="n"/>
-      <c r="C58" s="1" t="n"/>
-      <c r="D58" s="1" t="inlineStr">
-        <is>
-          <t>3149215 B 4737  EDUARDO RODRIGO PUPPI MORO</t>
-        </is>
-      </c>
+      <c r="C58" s="1" t="inlineStr">
+        <is>
+          <t>Subtotal</t>
+        </is>
+      </c>
+      <c r="D58" s="1" t="inlineStr"/>
       <c r="E58" t="n">
-        <v>152</v>
+        <v>324.7</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>152</v>
+        <v>324.7</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n"/>
-      <c r="B59" s="1" t="n"/>
-      <c r="C59" s="1" t="n"/>
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>1909</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>1909 Clubinho (Pacote)|Contábil: 28650</t>
+        </is>
+      </c>
+      <c r="C59" s="1" t="inlineStr">
+        <is>
+          <t>B-Presente</t>
+        </is>
+      </c>
       <c r="D59" s="1" t="inlineStr">
         <is>
-          <t>Subtotal</t>
+          <t>3150670 B 1728  TATIANA WAGNER L DE PAULA SIRENA</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>736</v>
+        <v>110</v>
       </c>
       <c r="F59" t="n">
-        <v>26.30999999999995</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>762.3099999999999</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n"/>
       <c r="B60" s="1" t="n"/>
-      <c r="C60" s="1" t="inlineStr">
-        <is>
-          <t>C-Presente</t>
-        </is>
-      </c>
+      <c r="C60" s="1" t="n"/>
       <c r="D60" s="1" t="inlineStr">
         <is>
-          <t>3149149 C 6756  AUGUSTO ROCHA PINTAL</t>
+          <t>Subtotal</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>198</v>
+        <v>110</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>198</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="1" t="n"/>
-      <c r="C61" s="1" t="n"/>
+      <c r="C61" s="1" t="inlineStr">
+        <is>
+          <t>C-Presente</t>
+        </is>
+      </c>
       <c r="D61" s="1" t="inlineStr">
         <is>
-          <t>3149211 C 1219  MANOELA BASSANI CASTRO</t>
+          <t>3150604 C 7999  ANDRE LUIS S VEIGA</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>228</v>
+        <v>55</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>228</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62">
@@ -5326,13 +4527,13 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>426</v>
+        <v>55</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>426</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63">
@@ -5345,44 +4546,44 @@
       </c>
       <c r="D63" s="1" t="inlineStr"/>
       <c r="E63" t="n">
-        <v>1162</v>
+        <v>165</v>
       </c>
       <c r="F63" t="n">
-        <v>26.30999999999995</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>1188.31</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>0443</t>
+          <t>2201</t>
         </is>
       </c>
       <c r="B64" s="1" t="inlineStr">
         <is>
-          <t>443 Curso De Artes|Contábil: 21964</t>
+          <t>2201 Devolucao De Mensalidades|Contábil: 747</t>
         </is>
       </c>
       <c r="C64" s="1" t="inlineStr">
         <is>
-          <t>B-Presente</t>
+          <t>C-Presente</t>
         </is>
       </c>
       <c r="D64" s="1" t="inlineStr">
         <is>
-          <t>3149204 B 4271  LETICIA CRISTINA DALLEDONE SIQUEIRA REIN</t>
+          <t>3150708 C 7823  LUCIANA CARNEIRO DE LARA DE MACEDO</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1657</v>
+        <v>-740.28</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>1491.3</v>
+        <v>-740.28</v>
       </c>
     </row>
     <row r="65">
@@ -5395,13 +4596,13 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1657</v>
+        <v>-740.28</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>1491.3</v>
+        <v>-740.28</v>
       </c>
     </row>
     <row r="66">
@@ -5409,115 +4610,123 @@
       <c r="B66" s="1" t="n"/>
       <c r="C66" s="1" t="inlineStr">
         <is>
-          <t>C-Presente</t>
-        </is>
-      </c>
-      <c r="D66" s="1" t="inlineStr">
-        <is>
-          <t>3149243 C 1967  LETICIA PEREIRA DA COSTA GOIS NOGUEIRA</t>
-        </is>
-      </c>
+          <t>Subtotal</t>
+        </is>
+      </c>
+      <c r="D66" s="1" t="inlineStr"/>
       <c r="E66" t="n">
-        <v>1779</v>
+        <v>-740.28</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>1779</v>
+        <v>-740.28</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n"/>
-      <c r="B67" s="1" t="n"/>
-      <c r="C67" s="1" t="n"/>
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>3009</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>3009 Torneio De Padel|Contábil: 22134</t>
+        </is>
+      </c>
+      <c r="C67" s="1" t="inlineStr">
+        <is>
+          <t>C-Presente</t>
+        </is>
+      </c>
       <c r="D67" s="1" t="inlineStr">
         <is>
-          <t>Subtotal</t>
+          <t>3049942 C 1681  BRUNO CARSTENS MOMBELLI</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>1779</v>
+        <v>75</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>2.879999999999995</v>
       </c>
       <c r="G67" t="n">
-        <v>1779</v>
+        <v>77.88</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n"/>
       <c r="B68" s="1" t="n"/>
-      <c r="C68" s="1" t="inlineStr">
+      <c r="C68" s="1" t="n"/>
+      <c r="D68" s="1" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
-      <c r="D68" s="1" t="inlineStr"/>
       <c r="E68" t="n">
-        <v>3436</v>
+        <v>75</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>2.879999999999995</v>
       </c>
       <c r="G68" t="n">
-        <v>3270.3</v>
+        <v>77.88</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>0463</t>
-        </is>
-      </c>
-      <c r="B69" s="1" t="inlineStr">
-        <is>
-          <t>463 Devolução Curso De Artes|Contábil: 747</t>
-        </is>
-      </c>
+      <c r="A69" s="1" t="n"/>
+      <c r="B69" s="1" t="n"/>
       <c r="C69" s="1" t="inlineStr">
         <is>
-          <t>C-Presente</t>
-        </is>
-      </c>
-      <c r="D69" s="1" t="inlineStr">
-        <is>
-          <t>3149242 C 1967  LETICIA PEREIRA DA COSTA GOIS NOGUEIRA</t>
-        </is>
-      </c>
+          <t>Subtotal</t>
+        </is>
+      </c>
+      <c r="D69" s="1" t="inlineStr"/>
       <c r="E69" t="n">
-        <v>-1657</v>
+        <v>75</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>2.879999999999995</v>
       </c>
       <c r="G69" t="n">
-        <v>-1657</v>
+        <v>77.88</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n"/>
-      <c r="B70" s="1" t="n"/>
-      <c r="C70" s="1" t="n"/>
-      <c r="D70" s="1" t="inlineStr">
+      <c r="A70" s="1" t="n">
+        <v>8888</v>
+      </c>
+      <c r="B70" s="1" t="inlineStr">
+        <is>
+          <t>Operações|Contábil: 8888</t>
+        </is>
+      </c>
+      <c r="C70" s="1" t="inlineStr">
         <is>
           <t>Subtotal</t>
         </is>
       </c>
+      <c r="D70" s="1" t="inlineStr"/>
       <c r="E70" t="n">
-        <v>-1657</v>
+        <v>-29.7</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>-1657</v>
+        <v>-29.7</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n"/>
-      <c r="B71" s="1" t="n"/>
+      <c r="A71" s="1" t="n">
+        <v>9999</v>
+      </c>
+      <c r="B71" s="1" t="inlineStr">
+        <is>
+          <t>Taxa|Contábil: 9999</t>
+        </is>
+      </c>
       <c r="C71" s="1" t="inlineStr">
         <is>
           <t>Subtotal</t>
@@ -5525,551 +4734,74 @@
       </c>
       <c r="D71" s="1" t="inlineStr"/>
       <c r="E71" t="n">
-        <v>-1657</v>
+        <v>-0.29</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>-1657</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>1083</t>
-        </is>
-      </c>
-      <c r="B72" s="1" t="inlineStr">
-        <is>
-          <t>1083 Aula De Beach Tennis - Marcelo Stoberl|Contábil: 40552</t>
-        </is>
-      </c>
-      <c r="C72" s="1" t="inlineStr">
-        <is>
-          <t>B-Presente</t>
-        </is>
-      </c>
-      <c r="D72" s="1" t="inlineStr">
-        <is>
-          <t>3150030 B 1792  HENRIQUE LEAL VIANNA</t>
-        </is>
-      </c>
+          <t>Total Geral</t>
+        </is>
+      </c>
+      <c r="B72" s="1" t="inlineStr"/>
+      <c r="C72" s="1" t="inlineStr"/>
+      <c r="D72" s="1" t="inlineStr"/>
       <c r="E72" t="n">
-        <v>46.5</v>
+        <v>22843.43</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>451.5999999999997</v>
       </c>
       <c r="G72" t="n">
-        <v>46.5</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n"/>
-      <c r="B73" s="1" t="n"/>
-      <c r="C73" s="1" t="n"/>
-      <c r="D73" s="1" t="inlineStr">
-        <is>
-          <t>3150031 B 1792  HENRIQUE LEAL VIANNA</t>
-        </is>
-      </c>
-      <c r="E73" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="n">
-        <v>46.5</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n"/>
-      <c r="B74" s="1" t="n"/>
-      <c r="C74" s="1" t="n"/>
-      <c r="D74" s="1" t="inlineStr">
-        <is>
-          <t>Subtotal</t>
-        </is>
-      </c>
-      <c r="E74" t="n">
-        <v>93</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" t="n">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n"/>
-      <c r="B75" s="1" t="n"/>
-      <c r="C75" s="1" t="inlineStr">
-        <is>
-          <t>Subtotal</t>
-        </is>
-      </c>
-      <c r="D75" s="1" t="inlineStr"/>
-      <c r="E75" t="n">
-        <v>93</v>
-      </c>
-      <c r="F75" t="n">
-        <v>0</v>
-      </c>
-      <c r="G75" t="n">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>1504</t>
-        </is>
-      </c>
-      <c r="B76" s="1" t="inlineStr">
-        <is>
-          <t>1504 Taxa Despesa Cobranca|Contábil: 15645</t>
-        </is>
-      </c>
-      <c r="C76" s="1" t="inlineStr">
-        <is>
-          <t>B-Presente</t>
-        </is>
-      </c>
-      <c r="D76" s="1" t="inlineStr">
-        <is>
-          <t>3148810 B 2555  TATIANA ALMEIDA BLITZKOW MARAN</t>
-        </is>
-      </c>
-      <c r="E76" t="n">
-        <v>250</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0</v>
-      </c>
-      <c r="G76" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n"/>
-      <c r="B77" s="1" t="n"/>
-      <c r="C77" s="1" t="n"/>
-      <c r="D77" s="1" t="inlineStr">
-        <is>
-          <t>Subtotal</t>
-        </is>
-      </c>
-      <c r="E77" t="n">
-        <v>250</v>
-      </c>
-      <c r="F77" t="n">
-        <v>0</v>
-      </c>
-      <c r="G77" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n"/>
-      <c r="B78" s="1" t="n"/>
-      <c r="C78" s="1" t="inlineStr">
-        <is>
-          <t>Subtotal</t>
-        </is>
-      </c>
-      <c r="D78" s="1" t="inlineStr"/>
-      <c r="E78" t="n">
-        <v>250</v>
-      </c>
-      <c r="F78" t="n">
-        <v>0</v>
-      </c>
-      <c r="G78" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="inlineStr">
-        <is>
-          <t>1908</t>
-        </is>
-      </c>
-      <c r="B79" s="1" t="inlineStr">
-        <is>
-          <t>1908 Clubinho|Contábil: 28650</t>
-        </is>
-      </c>
-      <c r="C79" s="1" t="inlineStr">
-        <is>
-          <t>C-Ausente</t>
-        </is>
-      </c>
-      <c r="D79" s="1" t="inlineStr">
-        <is>
-          <t>3146070 C 608  FERNANDA TRAMUJAS AZEVEDO BUENO DO NASCIMENTO</t>
-        </is>
-      </c>
-      <c r="E79" t="n">
-        <v>5</v>
-      </c>
-      <c r="F79" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="G79" t="n">
-        <v>5.1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n"/>
-      <c r="B80" s="1" t="n"/>
-      <c r="C80" s="1" t="n"/>
-      <c r="D80" s="1" t="inlineStr">
-        <is>
-          <t>Subtotal</t>
-        </is>
-      </c>
-      <c r="E80" t="n">
-        <v>5</v>
-      </c>
-      <c r="F80" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="G80" t="n">
-        <v>5.1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n"/>
-      <c r="B81" s="1" t="n"/>
-      <c r="C81" s="1" t="inlineStr">
-        <is>
-          <t>Subtotal</t>
-        </is>
-      </c>
-      <c r="D81" s="1" t="inlineStr"/>
-      <c r="E81" t="n">
-        <v>5</v>
-      </c>
-      <c r="F81" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="G81" t="n">
-        <v>5.1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="inlineStr">
-        <is>
-          <t>1909</t>
-        </is>
-      </c>
-      <c r="B82" s="1" t="inlineStr">
-        <is>
-          <t>1909 Clubinho (Pacote)|Contábil: 28650</t>
-        </is>
-      </c>
-      <c r="C82" s="1" t="inlineStr">
-        <is>
-          <t>B-Presente</t>
-        </is>
-      </c>
-      <c r="D82" s="1" t="inlineStr">
-        <is>
-          <t>3141642 B 1272  GABRIELE DE MACEDO PINTO</t>
-        </is>
-      </c>
-      <c r="E82" t="n">
-        <v>20</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0</v>
-      </c>
-      <c r="G82" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n"/>
-      <c r="B83" s="1" t="n"/>
-      <c r="C83" s="1" t="n"/>
-      <c r="D83" s="1" t="inlineStr">
-        <is>
-          <t>3141643 B 1272  GABRIELE DE MACEDO PINTO</t>
-        </is>
-      </c>
-      <c r="E83" t="n">
-        <v>18</v>
-      </c>
-      <c r="F83" t="n">
-        <v>0</v>
-      </c>
-      <c r="G83" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n"/>
-      <c r="B84" s="1" t="n"/>
-      <c r="C84" s="1" t="n"/>
-      <c r="D84" s="1" t="inlineStr">
-        <is>
-          <t>Subtotal</t>
-        </is>
-      </c>
-      <c r="E84" t="n">
-        <v>38</v>
-      </c>
-      <c r="F84" t="n">
-        <v>0</v>
-      </c>
-      <c r="G84" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n"/>
-      <c r="B85" s="1" t="n"/>
-      <c r="C85" s="1" t="inlineStr">
-        <is>
-          <t>C-Presente</t>
-        </is>
-      </c>
-      <c r="D85" s="1" t="inlineStr">
-        <is>
-          <t>3149041 C 2114  MARCEL BENTO AMARAL</t>
-        </is>
-      </c>
-      <c r="E85" t="n">
-        <v>220</v>
-      </c>
-      <c r="F85" t="n">
-        <v>0</v>
-      </c>
-      <c r="G85" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n"/>
-      <c r="B86" s="1" t="n"/>
-      <c r="C86" s="1" t="n"/>
-      <c r="D86" s="1" t="inlineStr">
-        <is>
-          <t>3149065 C 2387  THIAGO CAMARGO DUSZCZAK</t>
-        </is>
-      </c>
-      <c r="E86" t="n">
-        <v>99</v>
-      </c>
-      <c r="F86" t="n">
-        <v>0</v>
-      </c>
-      <c r="G86" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n"/>
-      <c r="B87" s="1" t="n"/>
-      <c r="C87" s="1" t="n"/>
-      <c r="D87" s="1" t="inlineStr">
-        <is>
-          <t>3149207 C 6756  AUGUSTO ROCHA PINTAL</t>
-        </is>
-      </c>
-      <c r="E87" t="n">
-        <v>220</v>
-      </c>
-      <c r="F87" t="n">
-        <v>0</v>
-      </c>
-      <c r="G87" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n"/>
-      <c r="B88" s="1" t="n"/>
-      <c r="C88" s="1" t="n"/>
-      <c r="D88" s="1" t="inlineStr">
-        <is>
-          <t>3150058 C 6758  BRUNO LUIZ VIANNA CLEMENTI</t>
-        </is>
-      </c>
-      <c r="E88" t="n">
-        <v>55</v>
-      </c>
-      <c r="F88" t="n">
-        <v>0</v>
-      </c>
-      <c r="G88" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n"/>
-      <c r="B89" s="1" t="n"/>
-      <c r="C89" s="1" t="n"/>
-      <c r="D89" s="1" t="inlineStr">
-        <is>
-          <t>Subtotal</t>
-        </is>
-      </c>
-      <c r="E89" t="n">
-        <v>594</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0</v>
-      </c>
-      <c r="G89" t="n">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n"/>
-      <c r="B90" s="1" t="n"/>
-      <c r="C90" s="1" t="inlineStr">
-        <is>
-          <t>Subtotal</t>
-        </is>
-      </c>
-      <c r="D90" s="1" t="inlineStr"/>
-      <c r="E90" t="n">
-        <v>632</v>
-      </c>
-      <c r="F90" t="n">
-        <v>0</v>
-      </c>
-      <c r="G90" t="n">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>8888</v>
-      </c>
-      <c r="B91" s="1" t="inlineStr">
-        <is>
-          <t>Operações|Contábil: 8888</t>
-        </is>
-      </c>
-      <c r="C91" s="1" t="inlineStr">
-        <is>
-          <t>Subtotal</t>
-        </is>
-      </c>
-      <c r="D91" s="1" t="inlineStr"/>
-      <c r="E91" t="n">
-        <v>-42.3</v>
-      </c>
-      <c r="F91" t="n">
-        <v>0</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-42.3</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>9999</v>
-      </c>
-      <c r="B92" s="1" t="inlineStr">
-        <is>
-          <t>Taxa|Contábil: 9999</t>
-        </is>
-      </c>
-      <c r="C92" s="1" t="inlineStr">
-        <is>
-          <t>Subtotal</t>
-        </is>
-      </c>
-      <c r="D92" s="1" t="inlineStr"/>
-      <c r="E92" t="n">
-        <v>-0.29</v>
-      </c>
-      <c r="F92" t="n">
-        <v>0</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-0.29</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="inlineStr">
-        <is>
-          <t>Total Geral</t>
-        </is>
-      </c>
-      <c r="B93" s="1" t="inlineStr"/>
-      <c r="C93" s="1" t="inlineStr"/>
-      <c r="D93" s="1" t="inlineStr"/>
-      <c r="E93" t="n">
-        <v>26296.41</v>
-      </c>
-      <c r="F93" t="n">
-        <v>632.4799999999996</v>
-      </c>
-      <c r="G93" t="n">
-        <v>26540.69000000001</v>
+        <v>23295.03</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="B57:B63"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="B82:B90"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="B64:B68"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="A57:A63"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="A2:A34"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C11:C27"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="A82:A90"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C85:C89"/>
-    <mergeCell ref="B11:B28"/>
-    <mergeCell ref="B29:B31"/>
+  <mergeCells count="38">
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A2:A30"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C35:C42"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C11:C21"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="B11:B22"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="B35:B43"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="A31:A43"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C52:C54"/>
     <mergeCell ref="C64:C65"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="A35:A38"/>
     <mergeCell ref="B2:B10"/>
-    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A56:A58"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
